--- a/outputs-HGR-r202-archive/p__Firmicutes.xlsx
+++ b/outputs-HGR-r202-archive/p__Firmicutes.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D530"/>
+  <dimension ref="A1:D513"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2339,11 +2339,11 @@
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT19932.fa</t>
+          <t>even_MAG-GUT2025.fa</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>160984.1038076667</v>
+        <v>107261.7794143812</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -2359,11 +2359,11 @@
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT2025.fa</t>
+          <t>even_MAG-GUT21168.fa</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>107261.7794143812</v>
+        <v>68366.75156614117</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -2379,11 +2379,11 @@
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT21168.fa</t>
+          <t>even_MAG-GUT2139.fa</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>68366.75156614117</v>
+        <v>106709.6269118924</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -2399,11 +2399,11 @@
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT2139.fa</t>
+          <t>even_MAG-GUT21728.fa</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>106709.6269118924</v>
+        <v>133920.3783122079</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -2419,11 +2419,11 @@
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT21728.fa</t>
+          <t>even_MAG-GUT2201.fa</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>133920.3783122079</v>
+        <v>153112.5834671215</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -2439,11 +2439,11 @@
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT2201.fa</t>
+          <t>even_MAG-GUT2250.fa</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>153112.5834671215</v>
+        <v>136355.4775283206</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -2459,11 +2459,11 @@
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT2250.fa</t>
+          <t>even_MAG-GUT2256.fa</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>136355.4775283206</v>
+        <v>245325.3888097158</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -2479,11 +2479,11 @@
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT2256.fa</t>
+          <t>even_MAG-GUT22606.fa</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>245325.3888097158</v>
+        <v>230185.2662024515</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -2499,11 +2499,11 @@
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT22606.fa</t>
+          <t>even_MAG-GUT2306.fa</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>230185.2662024515</v>
+        <v>210590.3240548625</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -2519,11 +2519,11 @@
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT2306.fa</t>
+          <t>even_MAG-GUT23295.fa</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>210590.3240548625</v>
+        <v>114641.5484356509</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -2539,11 +2539,11 @@
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT23295.fa</t>
+          <t>even_MAG-GUT2366.fa</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>114641.5484356509</v>
+        <v>166461.2752128054</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -2559,11 +2559,11 @@
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT2366.fa</t>
+          <t>even_MAG-GUT25429.fa</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>166461.2752128054</v>
+        <v>65801.39263347848</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -2579,11 +2579,11 @@
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT25429.fa</t>
+          <t>even_MAG-GUT26238.fa</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>65801.39263347848</v>
+        <v>152584.2876529336</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
@@ -2599,11 +2599,11 @@
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT26238.fa</t>
+          <t>even_MAG-GUT26973.fa</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>152584.2876529336</v>
+        <v>177562.0618576045</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -2619,11 +2619,11 @@
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT26973.fa</t>
+          <t>even_MAG-GUT27420.fa</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>177562.0618576045</v>
+        <v>267658.5757555389</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
@@ -2639,11 +2639,11 @@
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT27420.fa</t>
+          <t>even_MAG-GUT27437.fa</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>267658.5757555389</v>
+        <v>201328.5157724046</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
@@ -2659,11 +2659,11 @@
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT27437.fa</t>
+          <t>even_MAG-GUT27453.fa</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>201328.5157724046</v>
+        <v>194274.6168374646</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
@@ -2679,11 +2679,11 @@
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT27453.fa</t>
+          <t>even_MAG-GUT28570.fa</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>194274.6168374646</v>
+        <v>169809.8310872123</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
@@ -2699,11 +2699,11 @@
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT28570.fa</t>
+          <t>even_MAG-GUT30539.fa</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>169809.8310872123</v>
+        <v>78083.42920226492</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
@@ -2719,11 +2719,11 @@
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT30539.fa</t>
+          <t>even_MAG-GUT31303.fa</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>78083.42920226492</v>
+        <v>210698.7330795291</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
@@ -2739,11 +2739,11 @@
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT30639.fa</t>
+          <t>even_MAG-GUT32242.fa</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>109109.8749886027</v>
+        <v>205647.923920575</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
@@ -2759,11 +2759,11 @@
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT31303.fa</t>
+          <t>even_MAG-GUT3231.fa</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>210698.7330795291</v>
+        <v>147085.3899488721</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
@@ -2779,11 +2779,11 @@
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT32242.fa</t>
+          <t>even_MAG-GUT3233.fa</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>205647.923920575</v>
+        <v>165922.9700186713</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
@@ -2799,11 +2799,11 @@
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT3231.fa</t>
+          <t>even_MAG-GUT32544.fa</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>147085.3899488721</v>
+        <v>68228.24484880216</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
@@ -2819,11 +2819,11 @@
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT3233.fa</t>
+          <t>even_MAG-GUT32654.fa</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>165922.9700186713</v>
+        <v>139186.8436039272</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
@@ -2839,11 +2839,11 @@
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT32544.fa</t>
+          <t>even_MAG-GUT3301.fa</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>68228.24484880216</v>
+        <v>136586.3764951006</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
@@ -2859,11 +2859,11 @@
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT32654.fa</t>
+          <t>even_MAG-GUT3323.fa</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>139186.8436039272</v>
+        <v>116448.3963341536</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
@@ -2879,11 +2879,11 @@
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT3301.fa</t>
+          <t>even_MAG-GUT33836.fa</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>136586.3764951006</v>
+        <v>88924.50608526234</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
@@ -2899,11 +2899,11 @@
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT3323.fa</t>
+          <t>even_MAG-GUT3427.fa</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>116448.3963341536</v>
+        <v>211868.7061224722</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
@@ -2919,11 +2919,11 @@
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT33836.fa</t>
+          <t>even_MAG-GUT3435.fa</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>88924.50608526234</v>
+        <v>200284.7743752396</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
@@ -2939,11 +2939,11 @@
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT34245.fa</t>
+          <t>even_MAG-GUT3474.fa</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>120232.2547852043</v>
+        <v>231405.0155900238</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
@@ -2959,11 +2959,11 @@
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT3427.fa</t>
+          <t>even_MAG-GUT3477.fa</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>211868.7061224722</v>
+        <v>163510.913646758</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
@@ -2979,11 +2979,11 @@
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT3435.fa</t>
+          <t>even_MAG-GUT3479.fa</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>200284.7743752396</v>
+        <v>168922.8364274034</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
@@ -2999,11 +2999,11 @@
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT34540.fa</t>
+          <t>even_MAG-GUT3480.fa</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>107574.0809890793</v>
+        <v>253737.2440540276</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
@@ -3019,11 +3019,11 @@
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT3474.fa</t>
+          <t>even_MAG-GUT3484.fa</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>231405.0155900238</v>
+        <v>170748.9398999626</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
@@ -3039,11 +3039,11 @@
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT3477.fa</t>
+          <t>even_MAG-GUT3493.fa</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>163510.913646758</v>
+        <v>128839.4600750209</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
@@ -3059,11 +3059,11 @@
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT3479.fa</t>
+          <t>even_MAG-GUT34945.fa</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>168922.8364274034</v>
+        <v>103964.6863686456</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
@@ -3079,11 +3079,11 @@
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT3480.fa</t>
+          <t>even_MAG-GUT3499.fa</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>253737.2440540276</v>
+        <v>214404.6602662855</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
@@ -3099,11 +3099,11 @@
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT3484.fa</t>
+          <t>even_MAG-GUT3508.fa</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>170748.9398999626</v>
+        <v>190515.4837759854</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
@@ -3119,11 +3119,11 @@
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT3493.fa</t>
+          <t>even_MAG-GUT3548.fa</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>128839.4600750209</v>
+        <v>94403.5460883952</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
@@ -3139,11 +3139,11 @@
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT34945.fa</t>
+          <t>even_MAG-GUT3553.fa</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>103964.6863686456</v>
+        <v>136833.895482576</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
@@ -3159,11 +3159,11 @@
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT3499.fa</t>
+          <t>even_MAG-GUT3561.fa</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>214404.6602662855</v>
+        <v>151190.3829049429</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
@@ -3179,11 +3179,11 @@
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT3508.fa</t>
+          <t>even_MAG-GUT36103.fa</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>190515.4837759854</v>
+        <v>172845.7614106477</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
@@ -3199,11 +3199,11 @@
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT3548.fa</t>
+          <t>even_MAG-GUT36756.fa</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>94403.5460883952</v>
+        <v>148517.8019534153</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
@@ -3219,11 +3219,11 @@
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT3553.fa</t>
+          <t>even_MAG-GUT40025.fa</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>136833.895482576</v>
+        <v>174442.9240272503</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
@@ -3239,11 +3239,11 @@
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT3561.fa</t>
+          <t>even_MAG-GUT40033.fa</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>151190.3829049429</v>
+        <v>193218.195566467</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
@@ -3259,11 +3259,11 @@
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT36103.fa</t>
+          <t>even_MAG-GUT41.fa</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>172845.7614106477</v>
+        <v>174759.0998549382</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
@@ -3279,11 +3279,11 @@
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT36756.fa</t>
+          <t>even_MAG-GUT41852.fa</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>148517.8019534153</v>
+        <v>173962.202018643</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
@@ -3299,11 +3299,11 @@
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT40025.fa</t>
+          <t>even_MAG-GUT42578.fa</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>174442.9240272503</v>
+        <v>42504.15696311244</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
@@ -3319,11 +3319,11 @@
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT40033.fa</t>
+          <t>even_MAG-GUT42613.fa</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>193218.195566467</v>
+        <v>154808.4608695169</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
@@ -3339,11 +3339,11 @@
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT41.fa</t>
+          <t>even_MAG-GUT42662.fa</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>174759.0998549382</v>
+        <v>192826.7187184631</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
@@ -3359,11 +3359,11 @@
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT41852.fa</t>
+          <t>even_MAG-GUT42689.fa</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>173962.202018643</v>
+        <v>137466.9795114845</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
@@ -3379,11 +3379,11 @@
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT42578.fa</t>
+          <t>even_MAG-GUT43258.fa</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>42504.15696311244</v>
+        <v>204529.990457912</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
@@ -3399,11 +3399,11 @@
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT42613.fa</t>
+          <t>even_MAG-GUT43402.fa</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>154808.4608695169</v>
+        <v>232219.8488568552</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
@@ -3419,11 +3419,11 @@
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT42662.fa</t>
+          <t>even_MAG-GUT43425.fa</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>192826.7187184631</v>
+        <v>167471.8561352377</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
@@ -3439,11 +3439,11 @@
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT42689.fa</t>
+          <t>even_MAG-GUT43446.fa</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>137466.9795114845</v>
+        <v>76013.65400476687</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
@@ -3459,11 +3459,11 @@
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43258.fa</t>
+          <t>even_MAG-GUT43457.fa</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>204529.990457912</v>
+        <v>140131.4200687056</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
@@ -3479,11 +3479,11 @@
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43402.fa</t>
+          <t>even_MAG-GUT43462.fa</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>232219.8488568552</v>
+        <v>159206.5701026506</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
@@ -3499,11 +3499,11 @@
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43425.fa</t>
+          <t>even_MAG-GUT43463.fa</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>167471.8561352377</v>
+        <v>131833.7390821308</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
@@ -3519,11 +3519,11 @@
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43446.fa</t>
+          <t>even_MAG-GUT43483.fa</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>76013.65400476687</v>
+        <v>144877.6348467598</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
@@ -3539,11 +3539,11 @@
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43457.fa</t>
+          <t>even_MAG-GUT43491.fa</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>140131.4200687056</v>
+        <v>222611.5524176402</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
@@ -3559,11 +3559,11 @@
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43462.fa</t>
+          <t>even_MAG-GUT43515.fa</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>159206.5701026506</v>
+        <v>230939.8195531258</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
@@ -3579,11 +3579,11 @@
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43463.fa</t>
+          <t>even_MAG-GUT43573.fa</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>131833.7390821308</v>
+        <v>158574.4938944653</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
@@ -3599,11 +3599,11 @@
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43483.fa</t>
+          <t>even_MAG-GUT43577.fa</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>144877.6348467598</v>
+        <v>177094.034031552</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
@@ -3619,11 +3619,11 @@
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43491.fa</t>
+          <t>even_MAG-GUT43620.fa</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>222611.5524176402</v>
+        <v>158931.9848605638</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
@@ -3639,11 +3639,11 @@
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43515.fa</t>
+          <t>even_MAG-GUT43751.fa</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>230939.8195531258</v>
+        <v>149898.7118911843</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
@@ -3659,11 +3659,11 @@
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43573.fa</t>
+          <t>even_MAG-GUT43773.fa</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>158574.4938944653</v>
+        <v>175930.9296357292</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
@@ -3679,11 +3679,11 @@
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43577.fa</t>
+          <t>even_MAG-GUT43936.fa</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>177094.034031552</v>
+        <v>237710.9462785317</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
@@ -3699,11 +3699,11 @@
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43620.fa</t>
+          <t>even_MAG-GUT43943.fa</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>158931.9848605638</v>
+        <v>136030.5957058672</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
@@ -3719,11 +3719,11 @@
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43751.fa</t>
+          <t>even_MAG-GUT44002.fa</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>149898.7118911843</v>
+        <v>201090.4307616722</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
@@ -3739,11 +3739,11 @@
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43773.fa</t>
+          <t>even_MAG-GUT44104.fa</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>175930.9296357292</v>
+        <v>175290.7775985211</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
@@ -3759,11 +3759,11 @@
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43936.fa</t>
+          <t>even_MAG-GUT44177.fa</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>237710.9462785317</v>
+        <v>177391.3324581816</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
@@ -3779,11 +3779,11 @@
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT43943.fa</t>
+          <t>even_MAG-GUT44179.fa</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>136030.5957058672</v>
+        <v>219406.6800811805</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
@@ -3799,11 +3799,11 @@
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT44002.fa</t>
+          <t>even_MAG-GUT44190.fa</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>201090.4307616722</v>
+        <v>75567.5980876133</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
@@ -3819,11 +3819,11 @@
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT44104.fa</t>
+          <t>even_MAG-GUT44412.fa</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>175290.7775985211</v>
+        <v>151385.1301756284</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
@@ -3839,11 +3839,11 @@
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT44177.fa</t>
+          <t>even_MAG-GUT44539.fa</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>177391.3324581816</v>
+        <v>181690.5918443036</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
@@ -3859,11 +3859,11 @@
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT44179.fa</t>
+          <t>even_MAG-GUT44544.fa</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>219406.6800811805</v>
+        <v>140269.384356403</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
@@ -3879,11 +3879,11 @@
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT44190.fa</t>
+          <t>even_MAG-GUT44617.fa</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>75567.5980876133</v>
+        <v>153901.7096381538</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
@@ -3899,11 +3899,11 @@
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT44412.fa</t>
+          <t>even_MAG-GUT44666.fa</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>151385.1301756284</v>
+        <v>201090.4307616722</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
@@ -3919,11 +3919,11 @@
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT44539.fa</t>
+          <t>even_MAG-GUT45166.fa</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>181690.5918443036</v>
+        <v>244118.1251478377</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
@@ -3939,11 +3939,11 @@
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT44544.fa</t>
+          <t>even_MAG-GUT45212.fa</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>140269.384356403</v>
+        <v>157480.7268066804</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
@@ -3959,11 +3959,11 @@
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT44617.fa</t>
+          <t>even_MAG-GUT45687.fa</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>153901.7096381538</v>
+        <v>193691.9767082452</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
@@ -3979,11 +3979,11 @@
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT44666.fa</t>
+          <t>even_MAG-GUT45705.fa</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>201090.4307616722</v>
+        <v>148378.506346682</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
@@ -3999,11 +3999,11 @@
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT45166.fa</t>
+          <t>even_MAG-GUT45791.fa</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>244118.1251478377</v>
+        <v>127832.4194831124</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
@@ -4019,11 +4019,11 @@
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT45212.fa</t>
+          <t>even_MAG-GUT45882.fa</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>157480.7268066804</v>
+        <v>164850.735548828</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
@@ -4039,11 +4039,11 @@
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT45687.fa</t>
+          <t>even_MAG-GUT45923.fa</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>193691.9767082452</v>
+        <v>202662.5562161019</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
@@ -4059,11 +4059,11 @@
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT45705.fa</t>
+          <t>even_MAG-GUT46037.fa</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>148378.506346682</v>
+        <v>95532.86918584742</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
@@ -4079,11 +4079,11 @@
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT45791.fa</t>
+          <t>even_MAG-GUT4616.fa</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>127832.4194831124</v>
+        <v>71523.02381533061</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
@@ -4099,11 +4099,11 @@
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT45882.fa</t>
+          <t>even_MAG-GUT46437.fa</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>164850.735548828</v>
+        <v>145842.8954318966</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
@@ -4119,11 +4119,11 @@
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT45923.fa</t>
+          <t>even_MAG-GUT46441.fa</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>202662.5562161019</v>
+        <v>172945.5411518736</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
@@ -4139,11 +4139,11 @@
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT46037.fa</t>
+          <t>even_MAG-GUT46658.fa</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>95532.86918584742</v>
+        <v>142807.7353991267</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
@@ -4159,11 +4159,11 @@
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT4616.fa</t>
+          <t>even_MAG-GUT46868.fa</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>71523.02381533061</v>
+        <v>154975.8553100089</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
@@ -4179,11 +4179,11 @@
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT46437.fa</t>
+          <t>even_MAG-GUT46962.fa</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>145842.8954318966</v>
+        <v>152258.618820465</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
@@ -4199,11 +4199,11 @@
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT46441.fa</t>
+          <t>even_MAG-GUT47063.fa</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>172945.5411518736</v>
+        <v>160606.8385876746</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
@@ -4219,11 +4219,11 @@
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT46658.fa</t>
+          <t>even_MAG-GUT47179.fa</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>142807.7353991267</v>
+        <v>195087.489664173</v>
       </c>
       <c r="C190" t="inlineStr">
         <is>
@@ -4239,11 +4239,11 @@
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT46868.fa</t>
+          <t>even_MAG-GUT47531.fa</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>154975.8553100089</v>
+        <v>125083.2521653616</v>
       </c>
       <c r="C191" t="inlineStr">
         <is>
@@ -4259,11 +4259,11 @@
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT46962.fa</t>
+          <t>even_MAG-GUT47559.fa</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>152258.618820465</v>
+        <v>156758.1615969127</v>
       </c>
       <c r="C192" t="inlineStr">
         <is>
@@ -4279,11 +4279,11 @@
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT47063.fa</t>
+          <t>even_MAG-GUT47637.fa</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>160606.8385876746</v>
+        <v>231173.978265469</v>
       </c>
       <c r="C193" t="inlineStr">
         <is>
@@ -4299,11 +4299,11 @@
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT47179.fa</t>
+          <t>even_MAG-GUT47723.fa</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>195087.489664173</v>
+        <v>198070.8552500934</v>
       </c>
       <c r="C194" t="inlineStr">
         <is>
@@ -4319,11 +4319,11 @@
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT47531.fa</t>
+          <t>even_MAG-GUT47782.fa</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>125083.2521653616</v>
+        <v>215731.9017614914</v>
       </c>
       <c r="C195" t="inlineStr">
         <is>
@@ -4339,11 +4339,11 @@
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT47559.fa</t>
+          <t>even_MAG-GUT47840.fa</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>156758.1615969127</v>
+        <v>179884.569077612</v>
       </c>
       <c r="C196" t="inlineStr">
         <is>
@@ -4359,11 +4359,11 @@
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT47637.fa</t>
+          <t>even_MAG-GUT48445.fa</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>231173.978265469</v>
+        <v>159240.2336161655</v>
       </c>
       <c r="C197" t="inlineStr">
         <is>
@@ -4379,11 +4379,11 @@
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT47723.fa</t>
+          <t>even_MAG-GUT48488.fa</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>198070.8552500934</v>
+        <v>186208.1665783421</v>
       </c>
       <c r="C198" t="inlineStr">
         <is>
@@ -4399,11 +4399,11 @@
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT47782.fa</t>
+          <t>even_MAG-GUT48498.fa</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>215731.9017614914</v>
+        <v>185065.1654597702</v>
       </c>
       <c r="C199" t="inlineStr">
         <is>
@@ -4419,11 +4419,11 @@
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48445.fa</t>
+          <t>even_MAG-GUT48566.fa</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>159240.2336161655</v>
+        <v>167604.6475182887</v>
       </c>
       <c r="C200" t="inlineStr">
         <is>
@@ -4439,11 +4439,11 @@
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48488.fa</t>
+          <t>even_MAG-GUT48571.fa</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>186208.1665783421</v>
+        <v>185418.5766642512</v>
       </c>
       <c r="C201" t="inlineStr">
         <is>
@@ -4459,11 +4459,11 @@
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48498.fa</t>
+          <t>even_MAG-GUT48585.fa</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>185065.1654597702</v>
+        <v>144558.546309009</v>
       </c>
       <c r="C202" t="inlineStr">
         <is>
@@ -4479,11 +4479,11 @@
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48566.fa</t>
+          <t>even_MAG-GUT48612.fa</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>167604.6475182887</v>
+        <v>148058.424805152</v>
       </c>
       <c r="C203" t="inlineStr">
         <is>
@@ -4499,11 +4499,11 @@
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48571.fa</t>
+          <t>even_MAG-GUT48629.fa</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>185418.5766642512</v>
+        <v>211804.718209822</v>
       </c>
       <c r="C204" t="inlineStr">
         <is>
@@ -4519,11 +4519,11 @@
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48585.fa</t>
+          <t>even_MAG-GUT48673.fa</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>144558.546309009</v>
+        <v>120730.1697107408</v>
       </c>
       <c r="C205" t="inlineStr">
         <is>
@@ -4539,11 +4539,11 @@
     <row r="206">
       <c r="A206" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48612.fa</t>
+          <t>even_MAG-GUT48682.fa</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>148058.424805152</v>
+        <v>164944.5800990706</v>
       </c>
       <c r="C206" t="inlineStr">
         <is>
@@ -4559,11 +4559,11 @@
     <row r="207">
       <c r="A207" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48629.fa</t>
+          <t>even_MAG-GUT48686.fa</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>211804.718209822</v>
+        <v>163748.8744457367</v>
       </c>
       <c r="C207" t="inlineStr">
         <is>
@@ -4579,11 +4579,11 @@
     <row r="208">
       <c r="A208" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48673.fa</t>
+          <t>even_MAG-GUT48704.fa</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>120730.1697107408</v>
+        <v>150517.906841345</v>
       </c>
       <c r="C208" t="inlineStr">
         <is>
@@ -4599,11 +4599,11 @@
     <row r="209">
       <c r="A209" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48682.fa</t>
+          <t>even_MAG-GUT48723.fa</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>164944.5800990706</v>
+        <v>124769.6186632925</v>
       </c>
       <c r="C209" t="inlineStr">
         <is>
@@ -4619,11 +4619,11 @@
     <row r="210">
       <c r="A210" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48686.fa</t>
+          <t>even_MAG-GUT48735.fa</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>163748.8744457367</v>
+        <v>183395.9149945301</v>
       </c>
       <c r="C210" t="inlineStr">
         <is>
@@ -4639,11 +4639,11 @@
     <row r="211">
       <c r="A211" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48704.fa</t>
+          <t>even_MAG-GUT48749.fa</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>150517.906841345</v>
+        <v>146022.7959886132</v>
       </c>
       <c r="C211" t="inlineStr">
         <is>
@@ -4659,11 +4659,11 @@
     <row r="212">
       <c r="A212" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48723.fa</t>
+          <t>even_MAG-GUT48754.fa</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>124769.6186632925</v>
+        <v>167960.163793057</v>
       </c>
       <c r="C212" t="inlineStr">
         <is>
@@ -4679,11 +4679,11 @@
     <row r="213">
       <c r="A213" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48735.fa</t>
+          <t>even_MAG-GUT48761.fa</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>183395.9149945301</v>
+        <v>169012.2561274817</v>
       </c>
       <c r="C213" t="inlineStr">
         <is>
@@ -4699,11 +4699,11 @@
     <row r="214">
       <c r="A214" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48749.fa</t>
+          <t>even_MAG-GUT48798.fa</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>146022.7959886132</v>
+        <v>166222.7035790184</v>
       </c>
       <c r="C214" t="inlineStr">
         <is>
@@ -4719,11 +4719,11 @@
     <row r="215">
       <c r="A215" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48754.fa</t>
+          <t>even_MAG-GUT48804.fa</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>167960.163793057</v>
+        <v>133088.1172682183</v>
       </c>
       <c r="C215" t="inlineStr">
         <is>
@@ -4739,11 +4739,11 @@
     <row r="216">
       <c r="A216" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48761.fa</t>
+          <t>even_MAG-GUT48829.fa</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>169012.2561274817</v>
+        <v>174224.5223479356</v>
       </c>
       <c r="C216" t="inlineStr">
         <is>
@@ -4759,11 +4759,11 @@
     <row r="217">
       <c r="A217" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48798.fa</t>
+          <t>even_MAG-GUT48834.fa</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>166222.7035790184</v>
+        <v>144157.9563294844</v>
       </c>
       <c r="C217" t="inlineStr">
         <is>
@@ -4779,11 +4779,11 @@
     <row r="218">
       <c r="A218" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48804.fa</t>
+          <t>even_MAG-GUT48887.fa</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>133088.1172682183</v>
+        <v>176812.1154016077</v>
       </c>
       <c r="C218" t="inlineStr">
         <is>
@@ -4799,11 +4799,11 @@
     <row r="219">
       <c r="A219" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48829.fa</t>
+          <t>even_MAG-GUT48894.fa</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>174224.5223479356</v>
+        <v>149542.5425168788</v>
       </c>
       <c r="C219" t="inlineStr">
         <is>
@@ -4819,11 +4819,11 @@
     <row r="220">
       <c r="A220" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48834.fa</t>
+          <t>even_MAG-GUT48940.fa</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>144157.9563294844</v>
+        <v>175698.2676079106</v>
       </c>
       <c r="C220" t="inlineStr">
         <is>
@@ -4839,11 +4839,11 @@
     <row r="221">
       <c r="A221" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48887.fa</t>
+          <t>even_MAG-GUT48968.fa</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>176812.1154016077</v>
+        <v>133898.4465855779</v>
       </c>
       <c r="C221" t="inlineStr">
         <is>
@@ -4859,11 +4859,11 @@
     <row r="222">
       <c r="A222" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48894.fa</t>
+          <t>even_MAG-GUT48971.fa</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>149542.5425168788</v>
+        <v>174253.3082682083</v>
       </c>
       <c r="C222" t="inlineStr">
         <is>
@@ -4879,11 +4879,11 @@
     <row r="223">
       <c r="A223" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48940.fa</t>
+          <t>even_MAG-GUT48976.fa</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>175698.2676079106</v>
+        <v>111301.1247699206</v>
       </c>
       <c r="C223" t="inlineStr">
         <is>
@@ -4899,11 +4899,11 @@
     <row r="224">
       <c r="A224" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48968.fa</t>
+          <t>even_MAG-GUT49002.fa</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>133898.4465855779</v>
+        <v>222445.3357152615</v>
       </c>
       <c r="C224" t="inlineStr">
         <is>
@@ -4919,11 +4919,11 @@
     <row r="225">
       <c r="A225" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48971.fa</t>
+          <t>even_MAG-GUT49004.fa</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>174253.3082682083</v>
+        <v>143764.6283349436</v>
       </c>
       <c r="C225" t="inlineStr">
         <is>
@@ -4939,11 +4939,11 @@
     <row r="226">
       <c r="A226" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48976.fa</t>
+          <t>even_MAG-GUT49005.fa</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>111301.1247699206</v>
+        <v>184930.2306206205</v>
       </c>
       <c r="C226" t="inlineStr">
         <is>
@@ -4959,11 +4959,11 @@
     <row r="227">
       <c r="A227" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49002.fa</t>
+          <t>even_MAG-GUT49010.fa</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>222445.3357152615</v>
+        <v>169904.5130211569</v>
       </c>
       <c r="C227" t="inlineStr">
         <is>
@@ -4979,11 +4979,11 @@
     <row r="228">
       <c r="A228" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49004.fa</t>
+          <t>even_MAG-GUT49015.fa</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>143764.6283349436</v>
+        <v>147705.4005121106</v>
       </c>
       <c r="C228" t="inlineStr">
         <is>
@@ -4999,11 +4999,11 @@
     <row r="229">
       <c r="A229" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49005.fa</t>
+          <t>even_MAG-GUT49023.fa</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>184930.2306206205</v>
+        <v>118406.6528885534</v>
       </c>
       <c r="C229" t="inlineStr">
         <is>
@@ -5019,11 +5019,11 @@
     <row r="230">
       <c r="A230" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49010.fa</t>
+          <t>even_MAG-GUT49051.fa</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>169904.5130211569</v>
+        <v>203664.7699560301</v>
       </c>
       <c r="C230" t="inlineStr">
         <is>
@@ -5039,11 +5039,11 @@
     <row r="231">
       <c r="A231" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49015.fa</t>
+          <t>even_MAG-GUT49063.fa</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>147705.4005121106</v>
+        <v>151616.4919752221</v>
       </c>
       <c r="C231" t="inlineStr">
         <is>
@@ -5059,11 +5059,11 @@
     <row r="232">
       <c r="A232" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49023.fa</t>
+          <t>even_MAG-GUT49069.fa</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>118406.6528885534</v>
+        <v>137194.1795820612</v>
       </c>
       <c r="C232" t="inlineStr">
         <is>
@@ -5079,11 +5079,11 @@
     <row r="233">
       <c r="A233" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49051.fa</t>
+          <t>even_MAG-GUT49070.fa</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>203664.7699560301</v>
+        <v>161700.6893729151</v>
       </c>
       <c r="C233" t="inlineStr">
         <is>
@@ -5099,11 +5099,11 @@
     <row r="234">
       <c r="A234" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49063.fa</t>
+          <t>even_MAG-GUT49071.fa</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>151616.4919752221</v>
+        <v>165803.816340579</v>
       </c>
       <c r="C234" t="inlineStr">
         <is>
@@ -5119,11 +5119,11 @@
     <row r="235">
       <c r="A235" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49069.fa</t>
+          <t>even_MAG-GUT49075.fa</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>137194.1795820612</v>
+        <v>178993.2848619216</v>
       </c>
       <c r="C235" t="inlineStr">
         <is>
@@ -5139,11 +5139,11 @@
     <row r="236">
       <c r="A236" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49070.fa</t>
+          <t>even_MAG-GUT49083.fa</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>161700.6893729151</v>
+        <v>132438.6455996775</v>
       </c>
       <c r="C236" t="inlineStr">
         <is>
@@ -5159,11 +5159,11 @@
     <row r="237">
       <c r="A237" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49071.fa</t>
+          <t>even_MAG-GUT49101.fa</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>165803.816340579</v>
+        <v>152702.5189504084</v>
       </c>
       <c r="C237" t="inlineStr">
         <is>
@@ -5179,11 +5179,11 @@
     <row r="238">
       <c r="A238" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49075.fa</t>
+          <t>even_MAG-GUT49118.fa</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>178993.2848619216</v>
+        <v>105178.6429288217</v>
       </c>
       <c r="C238" t="inlineStr">
         <is>
@@ -5199,11 +5199,11 @@
     <row r="239">
       <c r="A239" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49083.fa</t>
+          <t>even_MAG-GUT49170.fa</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>132438.6455996775</v>
+        <v>126912.0002450703</v>
       </c>
       <c r="C239" t="inlineStr">
         <is>
@@ -5219,11 +5219,11 @@
     <row r="240">
       <c r="A240" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49101.fa</t>
+          <t>even_MAG-GUT49176.fa</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>152702.5189504084</v>
+        <v>107204.9000524232</v>
       </c>
       <c r="C240" t="inlineStr">
         <is>
@@ -5239,11 +5239,11 @@
     <row r="241">
       <c r="A241" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49118.fa</t>
+          <t>even_MAG-GUT49179.fa</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>105178.6429288217</v>
+        <v>176428.2242375706</v>
       </c>
       <c r="C241" t="inlineStr">
         <is>
@@ -5259,11 +5259,11 @@
     <row r="242">
       <c r="A242" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49170.fa</t>
+          <t>even_MAG-GUT49226.fa</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>126912.0002450703</v>
+        <v>107754.8892228241</v>
       </c>
       <c r="C242" t="inlineStr">
         <is>
@@ -5279,11 +5279,11 @@
     <row r="243">
       <c r="A243" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49176.fa</t>
+          <t>even_MAG-GUT49236.fa</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>107204.9000524232</v>
+        <v>165737.0977720912</v>
       </c>
       <c r="C243" t="inlineStr">
         <is>
@@ -5299,11 +5299,11 @@
     <row r="244">
       <c r="A244" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49179.fa</t>
+          <t>even_MAG-GUT49289.fa</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>176428.2242375706</v>
+        <v>155757.0093995929</v>
       </c>
       <c r="C244" t="inlineStr">
         <is>
@@ -5319,11 +5319,11 @@
     <row r="245">
       <c r="A245" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49226.fa</t>
+          <t>even_MAG-GUT49297.fa</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>107754.8892228241</v>
+        <v>147353.0671753725</v>
       </c>
       <c r="C245" t="inlineStr">
         <is>
@@ -5339,11 +5339,11 @@
     <row r="246">
       <c r="A246" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49236.fa</t>
+          <t>even_MAG-GUT49302.fa</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>165737.0977720912</v>
+        <v>155602.6526369326</v>
       </c>
       <c r="C246" t="inlineStr">
         <is>
@@ -5359,11 +5359,11 @@
     <row r="247">
       <c r="A247" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49289.fa</t>
+          <t>even_MAG-GUT49315.fa</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>155757.0093995929</v>
+        <v>157387.1281096321</v>
       </c>
       <c r="C247" t="inlineStr">
         <is>
@@ -5379,11 +5379,11 @@
     <row r="248">
       <c r="A248" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49297.fa</t>
+          <t>even_MAG-GUT49326.fa</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>147353.0671753725</v>
+        <v>188751.672363026</v>
       </c>
       <c r="C248" t="inlineStr">
         <is>
@@ -5399,11 +5399,11 @@
     <row r="249">
       <c r="A249" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49302.fa</t>
+          <t>even_MAG-GUT49329.fa</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>155602.6526369326</v>
+        <v>157387.1281096321</v>
       </c>
       <c r="C249" t="inlineStr">
         <is>
@@ -5419,11 +5419,11 @@
     <row r="250">
       <c r="A250" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49315.fa</t>
+          <t>even_MAG-GUT49356.fa</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>157387.1281096321</v>
+        <v>149214.1303706037</v>
       </c>
       <c r="C250" t="inlineStr">
         <is>
@@ -5439,11 +5439,11 @@
     <row r="251">
       <c r="A251" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49326.fa</t>
+          <t>even_MAG-GUT49359.fa</t>
         </is>
       </c>
       <c r="B251" t="n">
-        <v>188751.672363026</v>
+        <v>141182.4966471663</v>
       </c>
       <c r="C251" t="inlineStr">
         <is>
@@ -5459,11 +5459,11 @@
     <row r="252">
       <c r="A252" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49329.fa</t>
+          <t>even_MAG-GUT49379.fa</t>
         </is>
       </c>
       <c r="B252" t="n">
-        <v>157387.1281096321</v>
+        <v>125330.4351197638</v>
       </c>
       <c r="C252" t="inlineStr">
         <is>
@@ -5479,11 +5479,11 @@
     <row r="253">
       <c r="A253" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49356.fa</t>
+          <t>even_MAG-GUT49384.fa</t>
         </is>
       </c>
       <c r="B253" t="n">
-        <v>149214.1303706037</v>
+        <v>249636.1808943079</v>
       </c>
       <c r="C253" t="inlineStr">
         <is>
@@ -5499,11 +5499,11 @@
     <row r="254">
       <c r="A254" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49359.fa</t>
+          <t>even_MAG-GUT49393.fa</t>
         </is>
       </c>
       <c r="B254" t="n">
-        <v>141182.4966471663</v>
+        <v>126964.8000390373</v>
       </c>
       <c r="C254" t="inlineStr">
         <is>
@@ -5519,11 +5519,11 @@
     <row r="255">
       <c r="A255" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49379.fa</t>
+          <t>even_MAG-GUT49403.fa</t>
         </is>
       </c>
       <c r="B255" t="n">
-        <v>125330.4351197638</v>
+        <v>152918.8917265786</v>
       </c>
       <c r="C255" t="inlineStr">
         <is>
@@ -5539,11 +5539,11 @@
     <row r="256">
       <c r="A256" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49384.fa</t>
+          <t>even_MAG-GUT49409.fa</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>249636.1808943079</v>
+        <v>134880.1943761457</v>
       </c>
       <c r="C256" t="inlineStr">
         <is>
@@ -5559,11 +5559,11 @@
     <row r="257">
       <c r="A257" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49393.fa</t>
+          <t>even_MAG-GUT4942.fa</t>
         </is>
       </c>
       <c r="B257" t="n">
-        <v>126964.8000390373</v>
+        <v>85533.66316614072</v>
       </c>
       <c r="C257" t="inlineStr">
         <is>
@@ -5579,11 +5579,11 @@
     <row r="258">
       <c r="A258" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49403.fa</t>
+          <t>even_MAG-GUT49456.fa</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>152918.8917265786</v>
+        <v>159200.519149567</v>
       </c>
       <c r="C258" t="inlineStr">
         <is>
@@ -5599,11 +5599,11 @@
     <row r="259">
       <c r="A259" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49409.fa</t>
+          <t>even_MAG-GUT49458.fa</t>
         </is>
       </c>
       <c r="B259" t="n">
-        <v>134880.1943761457</v>
+        <v>152527.6789903461</v>
       </c>
       <c r="C259" t="inlineStr">
         <is>
@@ -5619,11 +5619,11 @@
     <row r="260">
       <c r="A260" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT4942.fa</t>
+          <t>even_MAG-GUT49469.fa</t>
         </is>
       </c>
       <c r="B260" t="n">
-        <v>85533.66316614072</v>
+        <v>173161.7895845054</v>
       </c>
       <c r="C260" t="inlineStr">
         <is>
@@ -5639,11 +5639,11 @@
     <row r="261">
       <c r="A261" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49456.fa</t>
+          <t>even_MAG-GUT49499.fa</t>
         </is>
       </c>
       <c r="B261" t="n">
-        <v>159200.519149567</v>
+        <v>112594.4700895873</v>
       </c>
       <c r="C261" t="inlineStr">
         <is>
@@ -5659,11 +5659,11 @@
     <row r="262">
       <c r="A262" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49458.fa</t>
+          <t>even_MAG-GUT49512.fa</t>
         </is>
       </c>
       <c r="B262" t="n">
-        <v>152527.6789903461</v>
+        <v>126154.9442228858</v>
       </c>
       <c r="C262" t="inlineStr">
         <is>
@@ -5679,11 +5679,11 @@
     <row r="263">
       <c r="A263" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49469.fa</t>
+          <t>even_MAG-GUT49526.fa</t>
         </is>
       </c>
       <c r="B263" t="n">
-        <v>173161.7895845054</v>
+        <v>87214.56428409622</v>
       </c>
       <c r="C263" t="inlineStr">
         <is>
@@ -5699,11 +5699,11 @@
     <row r="264">
       <c r="A264" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49499.fa</t>
+          <t>even_MAG-GUT49529.fa</t>
         </is>
       </c>
       <c r="B264" t="n">
-        <v>112594.4700895873</v>
+        <v>152671.8802402761</v>
       </c>
       <c r="C264" t="inlineStr">
         <is>
@@ -5719,11 +5719,11 @@
     <row r="265">
       <c r="A265" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49512.fa</t>
+          <t>even_MAG-GUT49535.fa</t>
         </is>
       </c>
       <c r="B265" t="n">
-        <v>126154.9442228858</v>
+        <v>141309.1964311464</v>
       </c>
       <c r="C265" t="inlineStr">
         <is>
@@ -5739,11 +5739,11 @@
     <row r="266">
       <c r="A266" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49529.fa</t>
+          <t>even_MAG-GUT49539.fa</t>
         </is>
       </c>
       <c r="B266" t="n">
-        <v>152671.8802402761</v>
+        <v>157387.1281096321</v>
       </c>
       <c r="C266" t="inlineStr">
         <is>
@@ -5759,11 +5759,11 @@
     <row r="267">
       <c r="A267" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49535.fa</t>
+          <t>even_MAG-GUT49541.fa</t>
         </is>
       </c>
       <c r="B267" t="n">
-        <v>141309.1964311464</v>
+        <v>162742.6821383439</v>
       </c>
       <c r="C267" t="inlineStr">
         <is>
@@ -5779,11 +5779,11 @@
     <row r="268">
       <c r="A268" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49539.fa</t>
+          <t>even_MAG-GUT49567.fa</t>
         </is>
       </c>
       <c r="B268" t="n">
-        <v>157387.1281096321</v>
+        <v>193110.1706711867</v>
       </c>
       <c r="C268" t="inlineStr">
         <is>
@@ -5799,11 +5799,11 @@
     <row r="269">
       <c r="A269" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49541.fa</t>
+          <t>even_MAG-GUT49574.fa</t>
         </is>
       </c>
       <c r="B269" t="n">
-        <v>162742.6821383439</v>
+        <v>123069.0781582541</v>
       </c>
       <c r="C269" t="inlineStr">
         <is>
@@ -5819,11 +5819,11 @@
     <row r="270">
       <c r="A270" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49567.fa</t>
+          <t>even_MAG-GUT49593.fa</t>
         </is>
       </c>
       <c r="B270" t="n">
-        <v>193110.1706711867</v>
+        <v>155037.9420849266</v>
       </c>
       <c r="C270" t="inlineStr">
         <is>
@@ -5839,11 +5839,11 @@
     <row r="271">
       <c r="A271" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49574.fa</t>
+          <t>even_MAG-GUT49599.fa</t>
         </is>
       </c>
       <c r="B271" t="n">
-        <v>123069.0781582541</v>
+        <v>101669.2249108685</v>
       </c>
       <c r="C271" t="inlineStr">
         <is>
@@ -5859,11 +5859,11 @@
     <row r="272">
       <c r="A272" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49593.fa</t>
+          <t>even_MAG-GUT49609.fa</t>
         </is>
       </c>
       <c r="B272" t="n">
-        <v>155037.9420849266</v>
+        <v>180627.8865806896</v>
       </c>
       <c r="C272" t="inlineStr">
         <is>
@@ -5879,11 +5879,11 @@
     <row r="273">
       <c r="A273" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49599.fa</t>
+          <t>even_MAG-GUT49616.fa</t>
         </is>
       </c>
       <c r="B273" t="n">
-        <v>101669.2249108685</v>
+        <v>137611.9811558705</v>
       </c>
       <c r="C273" t="inlineStr">
         <is>
@@ -5899,11 +5899,11 @@
     <row r="274">
       <c r="A274" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49609.fa</t>
+          <t>even_MAG-GUT51.fa</t>
         </is>
       </c>
       <c r="B274" t="n">
-        <v>180627.8865806896</v>
+        <v>201228.8729392929</v>
       </c>
       <c r="C274" t="inlineStr">
         <is>
@@ -5919,11 +5919,11 @@
     <row r="275">
       <c r="A275" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49616.fa</t>
+          <t>even_MAG-GUT5258.fa</t>
         </is>
       </c>
       <c r="B275" t="n">
-        <v>137611.9811558705</v>
+        <v>162187.5916155067</v>
       </c>
       <c r="C275" t="inlineStr">
         <is>
@@ -5939,11 +5939,11 @@
     <row r="276">
       <c r="A276" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT51.fa</t>
+          <t>even_MAG-GUT56334.fa</t>
         </is>
       </c>
       <c r="B276" t="n">
-        <v>201228.8729392929</v>
+        <v>83369.86053303596</v>
       </c>
       <c r="C276" t="inlineStr">
         <is>
@@ -5959,11 +5959,11 @@
     <row r="277">
       <c r="A277" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT56334.fa</t>
+          <t>even_MAG-GUT56457.fa</t>
         </is>
       </c>
       <c r="B277" t="n">
-        <v>83369.86053303596</v>
+        <v>56510.42577304185</v>
       </c>
       <c r="C277" t="inlineStr">
         <is>
@@ -5979,11 +5979,11 @@
     <row r="278">
       <c r="A278" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT56425.fa</t>
+          <t>even_MAG-GUT57264.fa</t>
         </is>
       </c>
       <c r="B278" t="n">
-        <v>226669.1948001515</v>
+        <v>151358.2356890571</v>
       </c>
       <c r="C278" t="inlineStr">
         <is>
@@ -5999,11 +5999,11 @@
     <row r="279">
       <c r="A279" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT56457.fa</t>
+          <t>even_MAG-GUT57442.fa</t>
         </is>
       </c>
       <c r="B279" t="n">
-        <v>56510.42577304185</v>
+        <v>137284.1326657333</v>
       </c>
       <c r="C279" t="inlineStr">
         <is>
@@ -6019,11 +6019,11 @@
     <row r="280">
       <c r="A280" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT57264.fa</t>
+          <t>even_MAG-GUT57797.fa</t>
         </is>
       </c>
       <c r="B280" t="n">
-        <v>151358.2356890571</v>
+        <v>126567.9263276969</v>
       </c>
       <c r="C280" t="inlineStr">
         <is>
@@ -6039,11 +6039,11 @@
     <row r="281">
       <c r="A281" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT57442.fa</t>
+          <t>even_MAG-GUT58014.fa</t>
         </is>
       </c>
       <c r="B281" t="n">
-        <v>137284.1326657333</v>
+        <v>228960.5389343671</v>
       </c>
       <c r="C281" t="inlineStr">
         <is>
@@ -6059,11 +6059,11 @@
     <row r="282">
       <c r="A282" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT57797.fa</t>
+          <t>even_MAG-GUT58695.fa</t>
         </is>
       </c>
       <c r="B282" t="n">
-        <v>126567.9263276969</v>
+        <v>82498.07297273698</v>
       </c>
       <c r="C282" t="inlineStr">
         <is>
@@ -6079,11 +6079,11 @@
     <row r="283">
       <c r="A283" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT58014.fa</t>
+          <t>even_MAG-GUT5880.fa</t>
         </is>
       </c>
       <c r="B283" t="n">
-        <v>228960.5389343671</v>
+        <v>122495.4592023497</v>
       </c>
       <c r="C283" t="inlineStr">
         <is>
@@ -6099,11 +6099,11 @@
     <row r="284">
       <c r="A284" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT58695.fa</t>
+          <t>even_MAG-GUT59278.fa</t>
         </is>
       </c>
       <c r="B284" t="n">
-        <v>82498.07297273698</v>
+        <v>178495.9980313474</v>
       </c>
       <c r="C284" t="inlineStr">
         <is>
@@ -6119,11 +6119,11 @@
     <row r="285">
       <c r="A285" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT5880.fa</t>
+          <t>even_MAG-GUT6.fa</t>
         </is>
       </c>
       <c r="B285" t="n">
-        <v>122495.4592023497</v>
+        <v>218167.1402738662</v>
       </c>
       <c r="C285" t="inlineStr">
         <is>
@@ -6139,11 +6139,11 @@
     <row r="286">
       <c r="A286" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT59278.fa</t>
+          <t>even_MAG-GUT60365.fa</t>
         </is>
       </c>
       <c r="B286" t="n">
-        <v>178495.9980313474</v>
+        <v>117486.8508958576</v>
       </c>
       <c r="C286" t="inlineStr">
         <is>
@@ -6159,11 +6159,11 @@
     <row r="287">
       <c r="A287" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT59590.fa</t>
+          <t>even_MAG-GUT61176.fa</t>
         </is>
       </c>
       <c r="B287" t="n">
-        <v>173128.22034391</v>
+        <v>139588.2767759497</v>
       </c>
       <c r="C287" t="inlineStr">
         <is>
@@ -6179,11 +6179,11 @@
     <row r="288">
       <c r="A288" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6.fa</t>
+          <t>even_MAG-GUT61880.fa</t>
         </is>
       </c>
       <c r="B288" t="n">
-        <v>218167.1402738662</v>
+        <v>125409.5416859352</v>
       </c>
       <c r="C288" t="inlineStr">
         <is>
@@ -6199,11 +6199,11 @@
     <row r="289">
       <c r="A289" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT60365.fa</t>
+          <t>even_MAG-GUT6222.fa</t>
         </is>
       </c>
       <c r="B289" t="n">
-        <v>117486.8508958576</v>
+        <v>143625.778904097</v>
       </c>
       <c r="C289" t="inlineStr">
         <is>
@@ -6219,11 +6219,11 @@
     <row r="290">
       <c r="A290" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT61176.fa</t>
+          <t>even_MAG-GUT6224.fa</t>
         </is>
       </c>
       <c r="B290" t="n">
-        <v>139588.2767759497</v>
+        <v>263396.0810154955</v>
       </c>
       <c r="C290" t="inlineStr">
         <is>
@@ -6239,11 +6239,11 @@
     <row r="291">
       <c r="A291" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT61880.fa</t>
+          <t>even_MAG-GUT6229.fa</t>
         </is>
       </c>
       <c r="B291" t="n">
-        <v>125409.5416859352</v>
+        <v>171107.6312647187</v>
       </c>
       <c r="C291" t="inlineStr">
         <is>
@@ -6259,11 +6259,11 @@
     <row r="292">
       <c r="A292" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6222.fa</t>
+          <t>even_MAG-GUT6233.fa</t>
         </is>
       </c>
       <c r="B292" t="n">
-        <v>143625.778904097</v>
+        <v>146850.6916087737</v>
       </c>
       <c r="C292" t="inlineStr">
         <is>
@@ -6279,11 +6279,11 @@
     <row r="293">
       <c r="A293" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6224.fa</t>
+          <t>even_MAG-GUT6238.fa</t>
         </is>
       </c>
       <c r="B293" t="n">
-        <v>263396.0810154955</v>
+        <v>158405.8812057827</v>
       </c>
       <c r="C293" t="inlineStr">
         <is>
@@ -6299,11 +6299,11 @@
     <row r="294">
       <c r="A294" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6229.fa</t>
+          <t>even_MAG-GUT6241.fa</t>
         </is>
       </c>
       <c r="B294" t="n">
-        <v>171107.6312647187</v>
+        <v>157193.1734321467</v>
       </c>
       <c r="C294" t="inlineStr">
         <is>
@@ -6319,11 +6319,11 @@
     <row r="295">
       <c r="A295" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6233.fa</t>
+          <t>even_MAG-GUT6274.fa</t>
         </is>
       </c>
       <c r="B295" t="n">
-        <v>146850.6916087737</v>
+        <v>171107.6312647187</v>
       </c>
       <c r="C295" t="inlineStr">
         <is>
@@ -6339,11 +6339,11 @@
     <row r="296">
       <c r="A296" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6238.fa</t>
+          <t>even_MAG-GUT6291.fa</t>
         </is>
       </c>
       <c r="B296" t="n">
-        <v>158405.8812057827</v>
+        <v>175153.666398126</v>
       </c>
       <c r="C296" t="inlineStr">
         <is>
@@ -6359,11 +6359,11 @@
     <row r="297">
       <c r="A297" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6241.fa</t>
+          <t>even_MAG-GUT62924.fa</t>
         </is>
       </c>
       <c r="B297" t="n">
-        <v>157193.1734321467</v>
+        <v>199140.6067582935</v>
       </c>
       <c r="C297" t="inlineStr">
         <is>
@@ -6379,11 +6379,11 @@
     <row r="298">
       <c r="A298" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6274.fa</t>
+          <t>even_MAG-GUT62939.fa</t>
         </is>
       </c>
       <c r="B298" t="n">
-        <v>171107.6312647187</v>
+        <v>217334.3504960773</v>
       </c>
       <c r="C298" t="inlineStr">
         <is>
@@ -6399,11 +6399,11 @@
     <row r="299">
       <c r="A299" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6291.fa</t>
+          <t>even_MAG-GUT63100.fa</t>
         </is>
       </c>
       <c r="B299" t="n">
-        <v>175153.666398126</v>
+        <v>216219.3666666059</v>
       </c>
       <c r="C299" t="inlineStr">
         <is>
@@ -6419,11 +6419,11 @@
     <row r="300">
       <c r="A300" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT62924.fa</t>
+          <t>even_MAG-GUT63356.fa</t>
         </is>
       </c>
       <c r="B300" t="n">
-        <v>199140.6067582935</v>
+        <v>206254.2900402298</v>
       </c>
       <c r="C300" t="inlineStr">
         <is>
@@ -6439,11 +6439,11 @@
     <row r="301">
       <c r="A301" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT62939.fa</t>
+          <t>even_MAG-GUT63462.fa</t>
         </is>
       </c>
       <c r="B301" t="n">
-        <v>217334.3504960773</v>
+        <v>213800.178706145</v>
       </c>
       <c r="C301" t="inlineStr">
         <is>
@@ -6459,11 +6459,11 @@
     <row r="302">
       <c r="A302" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT63100.fa</t>
+          <t>even_MAG-GUT63569.fa</t>
         </is>
       </c>
       <c r="B302" t="n">
-        <v>216219.3666666059</v>
+        <v>244465.561207796</v>
       </c>
       <c r="C302" t="inlineStr">
         <is>
@@ -6479,11 +6479,11 @@
     <row r="303">
       <c r="A303" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT63356.fa</t>
+          <t>even_MAG-GUT65576.fa</t>
         </is>
       </c>
       <c r="B303" t="n">
-        <v>206254.2900402298</v>
+        <v>174442.9240272503</v>
       </c>
       <c r="C303" t="inlineStr">
         <is>
@@ -6499,11 +6499,11 @@
     <row r="304">
       <c r="A304" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT63462.fa</t>
+          <t>even_MAG-GUT65588.fa</t>
         </is>
       </c>
       <c r="B304" t="n">
-        <v>213800.178706145</v>
+        <v>193218.195566467</v>
       </c>
       <c r="C304" t="inlineStr">
         <is>
@@ -6519,11 +6519,11 @@
     <row r="305">
       <c r="A305" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT63569.fa</t>
+          <t>even_MAG-GUT66098.fa</t>
         </is>
       </c>
       <c r="B305" t="n">
-        <v>244465.561207796</v>
+        <v>174395.5767321562</v>
       </c>
       <c r="C305" t="inlineStr">
         <is>
@@ -6539,11 +6539,11 @@
     <row r="306">
       <c r="A306" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT65576.fa</t>
+          <t>even_MAG-GUT66111.fa</t>
         </is>
       </c>
       <c r="B306" t="n">
-        <v>174442.9240272503</v>
+        <v>167263.4975855768</v>
       </c>
       <c r="C306" t="inlineStr">
         <is>
@@ -6559,11 +6559,11 @@
     <row r="307">
       <c r="A307" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT65588.fa</t>
+          <t>even_MAG-GUT66152.fa</t>
         </is>
       </c>
       <c r="B307" t="n">
-        <v>193218.195566467</v>
+        <v>55793.60865992044</v>
       </c>
       <c r="C307" t="inlineStr">
         <is>
@@ -6579,11 +6579,11 @@
     <row r="308">
       <c r="A308" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT65671.fa</t>
+          <t>even_MAG-GUT66322.fa</t>
         </is>
       </c>
       <c r="B308" t="n">
-        <v>35027.39071662526</v>
+        <v>196375.4889690335</v>
       </c>
       <c r="C308" t="inlineStr">
         <is>
@@ -6599,11 +6599,11 @@
     <row r="309">
       <c r="A309" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT66098.fa</t>
+          <t>even_MAG-GUT66330.fa</t>
         </is>
       </c>
       <c r="B309" t="n">
-        <v>174395.5767321562</v>
+        <v>176161.5553580724</v>
       </c>
       <c r="C309" t="inlineStr">
         <is>
@@ -6619,11 +6619,11 @@
     <row r="310">
       <c r="A310" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT66111.fa</t>
+          <t>even_MAG-GUT66408.fa</t>
         </is>
       </c>
       <c r="B310" t="n">
-        <v>167263.4975855768</v>
+        <v>141159.5252150074</v>
       </c>
       <c r="C310" t="inlineStr">
         <is>
@@ -6639,11 +6639,11 @@
     <row r="311">
       <c r="A311" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT66152.fa</t>
+          <t>even_MAG-GUT67625.fa</t>
         </is>
       </c>
       <c r="B311" t="n">
-        <v>55793.60865992044</v>
+        <v>186800.6314586861</v>
       </c>
       <c r="C311" t="inlineStr">
         <is>
@@ -6659,11 +6659,11 @@
     <row r="312">
       <c r="A312" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT66161.fa</t>
+          <t>even_MAG-GUT67985.fa</t>
         </is>
       </c>
       <c r="B312" t="n">
-        <v>40906.7741427141</v>
+        <v>185725.1619296409</v>
       </c>
       <c r="C312" t="inlineStr">
         <is>
@@ -6679,11 +6679,11 @@
     <row r="313">
       <c r="A313" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT66322.fa</t>
+          <t>even_MAG-GUT68043.fa</t>
         </is>
       </c>
       <c r="B313" t="n">
-        <v>196375.4889690335</v>
+        <v>129082.4555391107</v>
       </c>
       <c r="C313" t="inlineStr">
         <is>
@@ -6699,11 +6699,11 @@
     <row r="314">
       <c r="A314" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT66330.fa</t>
+          <t>even_MAG-GUT68111.fa</t>
         </is>
       </c>
       <c r="B314" t="n">
-        <v>176161.5553580724</v>
+        <v>137934.146497124</v>
       </c>
       <c r="C314" t="inlineStr">
         <is>
@@ -6719,11 +6719,11 @@
     <row r="315">
       <c r="A315" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT66408.fa</t>
+          <t>even_MAG-GUT68629.fa</t>
         </is>
       </c>
       <c r="B315" t="n">
-        <v>141159.5252150074</v>
+        <v>104230.7824377714</v>
       </c>
       <c r="C315" t="inlineStr">
         <is>
@@ -6739,11 +6739,11 @@
     <row r="316">
       <c r="A316" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT67625.fa</t>
+          <t>even_MAG-GUT68640.fa</t>
         </is>
       </c>
       <c r="B316" t="n">
-        <v>186800.6314586861</v>
+        <v>207019.1044343257</v>
       </c>
       <c r="C316" t="inlineStr">
         <is>
@@ -6759,11 +6759,11 @@
     <row r="317">
       <c r="A317" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT67985.fa</t>
+          <t>even_MAG-GUT69501.fa</t>
         </is>
       </c>
       <c r="B317" t="n">
-        <v>185725.1619296409</v>
+        <v>144789.8599387197</v>
       </c>
       <c r="C317" t="inlineStr">
         <is>
@@ -6779,11 +6779,11 @@
     <row r="318">
       <c r="A318" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68043.fa</t>
+          <t>even_MAG-GUT70165.fa</t>
         </is>
       </c>
       <c r="B318" t="n">
-        <v>129082.4555391107</v>
+        <v>147553.7921375176</v>
       </c>
       <c r="C318" t="inlineStr">
         <is>
@@ -6799,11 +6799,11 @@
     <row r="319">
       <c r="A319" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68111.fa</t>
+          <t>even_MAG-GUT70414.fa</t>
         </is>
       </c>
       <c r="B319" t="n">
-        <v>137934.146497124</v>
+        <v>150012.1006075516</v>
       </c>
       <c r="C319" t="inlineStr">
         <is>
@@ -6819,11 +6819,11 @@
     <row r="320">
       <c r="A320" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68629.fa</t>
+          <t>even_MAG-GUT70460.fa</t>
         </is>
       </c>
       <c r="B320" t="n">
-        <v>104230.7824377714</v>
+        <v>70478.89361293399</v>
       </c>
       <c r="C320" t="inlineStr">
         <is>
@@ -6839,11 +6839,11 @@
     <row r="321">
       <c r="A321" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT68640.fa</t>
+          <t>even_MAG-GUT7062.fa</t>
         </is>
       </c>
       <c r="B321" t="n">
-        <v>207019.1044343257</v>
+        <v>147822.8769177381</v>
       </c>
       <c r="C321" t="inlineStr">
         <is>
@@ -6859,11 +6859,11 @@
     <row r="322">
       <c r="A322" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT69501.fa</t>
+          <t>even_MAG-GUT70620.fa</t>
         </is>
       </c>
       <c r="B322" t="n">
-        <v>144789.8599387197</v>
+        <v>164430.4372233383</v>
       </c>
       <c r="C322" t="inlineStr">
         <is>
@@ -6879,11 +6879,11 @@
     <row r="323">
       <c r="A323" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT70165.fa</t>
+          <t>even_MAG-GUT7064.fa</t>
         </is>
       </c>
       <c r="B323" t="n">
-        <v>147553.7921375176</v>
+        <v>158582.8852535964</v>
       </c>
       <c r="C323" t="inlineStr">
         <is>
@@ -6899,11 +6899,11 @@
     <row r="324">
       <c r="A324" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT70414.fa</t>
+          <t>even_MAG-GUT7066.fa</t>
         </is>
       </c>
       <c r="B324" t="n">
-        <v>150012.1006075516</v>
+        <v>124047.4683412754</v>
       </c>
       <c r="C324" t="inlineStr">
         <is>
@@ -6919,11 +6919,11 @@
     <row r="325">
       <c r="A325" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT70460.fa</t>
+          <t>even_MAG-GUT70664.fa</t>
         </is>
       </c>
       <c r="B325" t="n">
-        <v>70478.89361293399</v>
+        <v>214529.6513090464</v>
       </c>
       <c r="C325" t="inlineStr">
         <is>
@@ -6939,11 +6939,11 @@
     <row r="326">
       <c r="A326" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7062.fa</t>
+          <t>even_MAG-GUT7086.fa</t>
         </is>
       </c>
       <c r="B326" t="n">
-        <v>147822.8769177381</v>
+        <v>193518.7408224689</v>
       </c>
       <c r="C326" t="inlineStr">
         <is>
@@ -6959,11 +6959,11 @@
     <row r="327">
       <c r="A327" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT70620.fa</t>
+          <t>even_MAG-GUT7090.fa</t>
         </is>
       </c>
       <c r="B327" t="n">
-        <v>164430.4372233383</v>
+        <v>180346.3495319123</v>
       </c>
       <c r="C327" t="inlineStr">
         <is>
@@ -6979,11 +6979,11 @@
     <row r="328">
       <c r="A328" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7064.fa</t>
+          <t>even_MAG-GUT7102.fa</t>
         </is>
       </c>
       <c r="B328" t="n">
-        <v>158582.8852535964</v>
+        <v>148266.4211737834</v>
       </c>
       <c r="C328" t="inlineStr">
         <is>
@@ -6999,11 +6999,11 @@
     <row r="329">
       <c r="A329" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT70664.fa</t>
+          <t>even_MAG-GUT71084.fa</t>
         </is>
       </c>
       <c r="B329" t="n">
-        <v>214529.6513090464</v>
+        <v>153640.8298729332</v>
       </c>
       <c r="C329" t="inlineStr">
         <is>
@@ -7019,11 +7019,11 @@
     <row r="330">
       <c r="A330" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7086.fa</t>
+          <t>even_MAG-GUT7118.fa</t>
         </is>
       </c>
       <c r="B330" t="n">
-        <v>193518.7408224689</v>
+        <v>141854.0328034411</v>
       </c>
       <c r="C330" t="inlineStr">
         <is>
@@ -7039,11 +7039,11 @@
     <row r="331">
       <c r="A331" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7090.fa</t>
+          <t>even_MAG-GUT7121.fa</t>
         </is>
       </c>
       <c r="B331" t="n">
-        <v>180346.3495319123</v>
+        <v>149865.9418840008</v>
       </c>
       <c r="C331" t="inlineStr">
         <is>
@@ -7059,11 +7059,11 @@
     <row r="332">
       <c r="A332" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7102.fa</t>
+          <t>even_MAG-GUT7125.fa</t>
         </is>
       </c>
       <c r="B332" t="n">
-        <v>148266.4211737834</v>
+        <v>150026.4271653514</v>
       </c>
       <c r="C332" t="inlineStr">
         <is>
@@ -7079,11 +7079,11 @@
     <row r="333">
       <c r="A333" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT71084.fa</t>
+          <t>even_MAG-GUT71347.fa</t>
         </is>
       </c>
       <c r="B333" t="n">
-        <v>153640.8298729332</v>
+        <v>138488.9182811696</v>
       </c>
       <c r="C333" t="inlineStr">
         <is>
@@ -7099,11 +7099,11 @@
     <row r="334">
       <c r="A334" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7118.fa</t>
+          <t>even_MAG-GUT7175.fa</t>
         </is>
       </c>
       <c r="B334" t="n">
-        <v>141854.0328034411</v>
+        <v>174534.9143069257</v>
       </c>
       <c r="C334" t="inlineStr">
         <is>
@@ -7119,11 +7119,11 @@
     <row r="335">
       <c r="A335" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7121.fa</t>
+          <t>even_MAG-GUT71751.fa</t>
         </is>
       </c>
       <c r="B335" t="n">
-        <v>149865.9418840008</v>
+        <v>225984.4596917647</v>
       </c>
       <c r="C335" t="inlineStr">
         <is>
@@ -7139,11 +7139,11 @@
     <row r="336">
       <c r="A336" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7125.fa</t>
+          <t>even_MAG-GUT7213.fa</t>
         </is>
       </c>
       <c r="B336" t="n">
-        <v>150026.4271653514</v>
+        <v>171209.6151101428</v>
       </c>
       <c r="C336" t="inlineStr">
         <is>
@@ -7159,11 +7159,11 @@
     <row r="337">
       <c r="A337" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT71347.fa</t>
+          <t>even_MAG-GUT7214.fa</t>
         </is>
       </c>
       <c r="B337" t="n">
-        <v>138488.9182811696</v>
+        <v>168627.9513856706</v>
       </c>
       <c r="C337" t="inlineStr">
         <is>
@@ -7179,11 +7179,11 @@
     <row r="338">
       <c r="A338" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7175.fa</t>
+          <t>even_MAG-GUT7216.fa</t>
         </is>
       </c>
       <c r="B338" t="n">
-        <v>174534.9143069257</v>
+        <v>132172.203117259</v>
       </c>
       <c r="C338" t="inlineStr">
         <is>
@@ -7199,11 +7199,11 @@
     <row r="339">
       <c r="A339" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT71751.fa</t>
+          <t>even_MAG-GUT7222.fa</t>
         </is>
       </c>
       <c r="B339" t="n">
-        <v>225984.4596917647</v>
+        <v>166624.0205482904</v>
       </c>
       <c r="C339" t="inlineStr">
         <is>
@@ -7219,11 +7219,11 @@
     <row r="340">
       <c r="A340" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7213.fa</t>
+          <t>even_MAG-GUT7253.fa</t>
         </is>
       </c>
       <c r="B340" t="n">
-        <v>171209.6151101428</v>
+        <v>137630.2976366073</v>
       </c>
       <c r="C340" t="inlineStr">
         <is>
@@ -7239,11 +7239,11 @@
     <row r="341">
       <c r="A341" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7214.fa</t>
+          <t>even_MAG-GUT7278.fa</t>
         </is>
       </c>
       <c r="B341" t="n">
-        <v>168627.9513856706</v>
+        <v>160754.6443440437</v>
       </c>
       <c r="C341" t="inlineStr">
         <is>
@@ -7259,11 +7259,11 @@
     <row r="342">
       <c r="A342" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7216.fa</t>
+          <t>even_MAG-GUT7285.fa</t>
         </is>
       </c>
       <c r="B342" t="n">
-        <v>132172.203117259</v>
+        <v>253321.6692019716</v>
       </c>
       <c r="C342" t="inlineStr">
         <is>
@@ -7279,11 +7279,11 @@
     <row r="343">
       <c r="A343" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7222.fa</t>
+          <t>even_MAG-GUT7291.fa</t>
         </is>
       </c>
       <c r="B343" t="n">
-        <v>166624.0205482904</v>
+        <v>167605.4148814096</v>
       </c>
       <c r="C343" t="inlineStr">
         <is>
@@ -7299,11 +7299,11 @@
     <row r="344">
       <c r="A344" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7253.fa</t>
+          <t>even_MAG-GUT73847.fa</t>
         </is>
       </c>
       <c r="B344" t="n">
-        <v>137630.2976366073</v>
+        <v>239713.4210333015</v>
       </c>
       <c r="C344" t="inlineStr">
         <is>
@@ -7319,11 +7319,11 @@
     <row r="345">
       <c r="A345" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7278.fa</t>
+          <t>even_MAG-GUT74183.fa</t>
         </is>
       </c>
       <c r="B345" t="n">
-        <v>160754.6443440437</v>
+        <v>246615.3867755685</v>
       </c>
       <c r="C345" t="inlineStr">
         <is>
@@ -7339,11 +7339,11 @@
     <row r="346">
       <c r="A346" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7285.fa</t>
+          <t>even_MAG-GUT76426.fa</t>
         </is>
       </c>
       <c r="B346" t="n">
-        <v>253321.6692019716</v>
+        <v>211051.9591620181</v>
       </c>
       <c r="C346" t="inlineStr">
         <is>
@@ -7359,11 +7359,11 @@
     <row r="347">
       <c r="A347" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7291.fa</t>
+          <t>even_MAG-GUT76486.fa</t>
         </is>
       </c>
       <c r="B347" t="n">
-        <v>167605.4148814096</v>
+        <v>249194.9144170911</v>
       </c>
       <c r="C347" t="inlineStr">
         <is>
@@ -7379,11 +7379,11 @@
     <row r="348">
       <c r="A348" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT73847.fa</t>
+          <t>even_MAG-GUT76530.fa</t>
         </is>
       </c>
       <c r="B348" t="n">
-        <v>239713.4210333015</v>
+        <v>254700.1746267863</v>
       </c>
       <c r="C348" t="inlineStr">
         <is>
@@ -7399,11 +7399,11 @@
     <row r="349">
       <c r="A349" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT74183.fa</t>
+          <t>even_MAG-GUT77471.fa</t>
         </is>
       </c>
       <c r="B349" t="n">
-        <v>246615.3867755685</v>
+        <v>162527.0635015448</v>
       </c>
       <c r="C349" t="inlineStr">
         <is>
@@ -7419,11 +7419,11 @@
     <row r="350">
       <c r="A350" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT76426.fa</t>
+          <t>even_MAG-GUT7751.fa</t>
         </is>
       </c>
       <c r="B350" t="n">
-        <v>211051.9591620181</v>
+        <v>56071.39151582525</v>
       </c>
       <c r="C350" t="inlineStr">
         <is>
@@ -7439,11 +7439,11 @@
     <row r="351">
       <c r="A351" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT76486.fa</t>
+          <t>even_MAG-GUT77576.fa</t>
         </is>
       </c>
       <c r="B351" t="n">
-        <v>249194.9144170911</v>
+        <v>265594.8579347576</v>
       </c>
       <c r="C351" t="inlineStr">
         <is>
@@ -7459,11 +7459,11 @@
     <row r="352">
       <c r="A352" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT76530.fa</t>
+          <t>even_MAG-GUT83503.fa</t>
         </is>
       </c>
       <c r="B352" t="n">
-        <v>254700.1746267863</v>
+        <v>114305.0641565351</v>
       </c>
       <c r="C352" t="inlineStr">
         <is>
@@ -7479,11 +7479,11 @@
     <row r="353">
       <c r="A353" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT77471.fa</t>
+          <t>even_MAG-GUT83507.fa</t>
         </is>
       </c>
       <c r="B353" t="n">
-        <v>162527.0635015448</v>
+        <v>146030.3352219252</v>
       </c>
       <c r="C353" t="inlineStr">
         <is>
@@ -7499,11 +7499,11 @@
     <row r="354">
       <c r="A354" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT7751.fa</t>
+          <t>even_MAG-GUT86747.fa</t>
         </is>
       </c>
       <c r="B354" t="n">
-        <v>56071.39151582525</v>
+        <v>210065.0317228242</v>
       </c>
       <c r="C354" t="inlineStr">
         <is>
@@ -7519,11 +7519,11 @@
     <row r="355">
       <c r="A355" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT77576.fa</t>
+          <t>even_MAG-GUT86758.fa</t>
         </is>
       </c>
       <c r="B355" t="n">
-        <v>265594.8579347576</v>
+        <v>211726.8149346304</v>
       </c>
       <c r="C355" t="inlineStr">
         <is>
@@ -7539,11 +7539,11 @@
     <row r="356">
       <c r="A356" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT83501.fa</t>
+          <t>even_MAG-GUT87407.fa</t>
         </is>
       </c>
       <c r="B356" t="n">
-        <v>93519.2377841562</v>
+        <v>192230.5835203134</v>
       </c>
       <c r="C356" t="inlineStr">
         <is>
@@ -7559,11 +7559,11 @@
     <row r="357">
       <c r="A357" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT83503.fa</t>
+          <t>even_MAG-GUT87621.fa</t>
         </is>
       </c>
       <c r="B357" t="n">
-        <v>114305.0641565351</v>
+        <v>190879.9565177922</v>
       </c>
       <c r="C357" t="inlineStr">
         <is>
@@ -7579,11 +7579,11 @@
     <row r="358">
       <c r="A358" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT83507.fa</t>
+          <t>even_MAG-GUT87674.fa</t>
         </is>
       </c>
       <c r="B358" t="n">
-        <v>146030.3352219252</v>
+        <v>192230.5835203134</v>
       </c>
       <c r="C358" t="inlineStr">
         <is>
@@ -7599,11 +7599,11 @@
     <row r="359">
       <c r="A359" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT86747.fa</t>
+          <t>even_MAG-GUT87941.fa</t>
         </is>
       </c>
       <c r="B359" t="n">
-        <v>210065.0317228242</v>
+        <v>184330.8935303371</v>
       </c>
       <c r="C359" t="inlineStr">
         <is>
@@ -7619,11 +7619,11 @@
     <row r="360">
       <c r="A360" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT86758.fa</t>
+          <t>even_MAG-GUT88016.fa</t>
         </is>
       </c>
       <c r="B360" t="n">
-        <v>211726.8149346304</v>
+        <v>218929.6558834773</v>
       </c>
       <c r="C360" t="inlineStr">
         <is>
@@ -7639,11 +7639,11 @@
     <row r="361">
       <c r="A361" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT87407.fa</t>
+          <t>even_MAG-GUT88714.fa</t>
         </is>
       </c>
       <c r="B361" t="n">
-        <v>192230.5835203134</v>
+        <v>156669.4607380121</v>
       </c>
       <c r="C361" t="inlineStr">
         <is>
@@ -7659,11 +7659,11 @@
     <row r="362">
       <c r="A362" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT87621.fa</t>
+          <t>even_MAG-GUT88733.fa</t>
         </is>
       </c>
       <c r="B362" t="n">
-        <v>190879.9565177922</v>
+        <v>184483.2820273956</v>
       </c>
       <c r="C362" t="inlineStr">
         <is>
@@ -7679,11 +7679,11 @@
     <row r="363">
       <c r="A363" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT87674.fa</t>
+          <t>even_MAG-GUT88737.fa</t>
         </is>
       </c>
       <c r="B363" t="n">
-        <v>192230.5835203134</v>
+        <v>191004.7760797052</v>
       </c>
       <c r="C363" t="inlineStr">
         <is>
@@ -7699,11 +7699,11 @@
     <row r="364">
       <c r="A364" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT87941.fa</t>
+          <t>even_MAG-GUT88876.fa</t>
         </is>
       </c>
       <c r="B364" t="n">
-        <v>184330.8935303371</v>
+        <v>156669.4607380121</v>
       </c>
       <c r="C364" t="inlineStr">
         <is>
@@ -7719,11 +7719,11 @@
     <row r="365">
       <c r="A365" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT88016.fa</t>
+          <t>even_MAG-GUT89068.fa</t>
         </is>
       </c>
       <c r="B365" t="n">
-        <v>218929.6558834773</v>
+        <v>176646.260186426</v>
       </c>
       <c r="C365" t="inlineStr">
         <is>
@@ -7739,11 +7739,11 @@
     <row r="366">
       <c r="A366" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT88714.fa</t>
+          <t>even_MAG-GUT89102.fa</t>
         </is>
       </c>
       <c r="B366" t="n">
-        <v>156669.4607380121</v>
+        <v>233131.7423765932</v>
       </c>
       <c r="C366" t="inlineStr">
         <is>
@@ -7759,11 +7759,11 @@
     <row r="367">
       <c r="A367" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT88733.fa</t>
+          <t>even_MAG-GUT89162.fa</t>
         </is>
       </c>
       <c r="B367" t="n">
-        <v>184483.2820273956</v>
+        <v>76247.54316583238</v>
       </c>
       <c r="C367" t="inlineStr">
         <is>
@@ -7779,11 +7779,11 @@
     <row r="368">
       <c r="A368" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT88737.fa</t>
+          <t>even_MAG-GUT89179.fa</t>
         </is>
       </c>
       <c r="B368" t="n">
-        <v>191004.7760797052</v>
+        <v>194617.1029039834</v>
       </c>
       <c r="C368" t="inlineStr">
         <is>
@@ -7799,11 +7799,11 @@
     <row r="369">
       <c r="A369" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT88876.fa</t>
+          <t>even_MAG-GUT89204.fa</t>
         </is>
       </c>
       <c r="B369" t="n">
-        <v>156669.4607380121</v>
+        <v>194617.1029039834</v>
       </c>
       <c r="C369" t="inlineStr">
         <is>
@@ -7819,11 +7819,11 @@
     <row r="370">
       <c r="A370" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89050.fa</t>
+          <t>even_MAG-GUT89246.fa</t>
         </is>
       </c>
       <c r="B370" t="n">
-        <v>64635.26876899967</v>
+        <v>119756.7157701793</v>
       </c>
       <c r="C370" t="inlineStr">
         <is>
@@ -7839,11 +7839,11 @@
     <row r="371">
       <c r="A371" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89068.fa</t>
+          <t>even_MAG-GUT89255.fa</t>
         </is>
       </c>
       <c r="B371" t="n">
-        <v>176646.260186426</v>
+        <v>185033.0823617164</v>
       </c>
       <c r="C371" t="inlineStr">
         <is>
@@ -7859,11 +7859,11 @@
     <row r="372">
       <c r="A372" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89102.fa</t>
+          <t>even_MAG-GUT89273.fa</t>
         </is>
       </c>
       <c r="B372" t="n">
-        <v>233131.7423765932</v>
+        <v>153350.9209799267</v>
       </c>
       <c r="C372" t="inlineStr">
         <is>
@@ -7879,11 +7879,11 @@
     <row r="373">
       <c r="A373" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89162.fa</t>
+          <t>even_MAG-GUT89282.fa</t>
         </is>
       </c>
       <c r="B373" t="n">
-        <v>76247.54316583238</v>
+        <v>234791.3459079387</v>
       </c>
       <c r="C373" t="inlineStr">
         <is>
@@ -7899,11 +7899,11 @@
     <row r="374">
       <c r="A374" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89164.fa</t>
+          <t>even_MAG-GUT89292.fa</t>
         </is>
       </c>
       <c r="B374" t="n">
-        <v>64635.26876899967</v>
+        <v>194469.157185953</v>
       </c>
       <c r="C374" t="inlineStr">
         <is>
@@ -7919,11 +7919,11 @@
     <row r="375">
       <c r="A375" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89179.fa</t>
+          <t>even_MAG-GUT89309.fa</t>
         </is>
       </c>
       <c r="B375" t="n">
-        <v>194617.1029039834</v>
+        <v>228612.9015230818</v>
       </c>
       <c r="C375" t="inlineStr">
         <is>
@@ -7939,11 +7939,11 @@
     <row r="376">
       <c r="A376" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89204.fa</t>
+          <t>even_MAG-GUT89317.fa</t>
         </is>
       </c>
       <c r="B376" t="n">
-        <v>194617.1029039834</v>
+        <v>204218.669717965</v>
       </c>
       <c r="C376" t="inlineStr">
         <is>
@@ -7959,11 +7959,11 @@
     <row r="377">
       <c r="A377" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89244.fa</t>
+          <t>even_MAG-GUT89332.fa</t>
         </is>
       </c>
       <c r="B377" t="n">
-        <v>66040.62765278919</v>
+        <v>153350.9209799267</v>
       </c>
       <c r="C377" t="inlineStr">
         <is>
@@ -7979,11 +7979,11 @@
     <row r="378">
       <c r="A378" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89246.fa</t>
+          <t>even_MAG-GUT89335.fa</t>
         </is>
       </c>
       <c r="B378" t="n">
-        <v>119756.7157701793</v>
+        <v>202560.2566780145</v>
       </c>
       <c r="C378" t="inlineStr">
         <is>
@@ -7999,11 +7999,11 @@
     <row r="379">
       <c r="A379" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89255.fa</t>
+          <t>even_MAG-GUT89355.fa</t>
         </is>
       </c>
       <c r="B379" t="n">
-        <v>185033.0823617164</v>
+        <v>187310.8358685724</v>
       </c>
       <c r="C379" t="inlineStr">
         <is>
@@ -8019,11 +8019,11 @@
     <row r="380">
       <c r="A380" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89273.fa</t>
+          <t>even_MAG-GUT89363.fa</t>
         </is>
       </c>
       <c r="B380" t="n">
-        <v>153350.9209799267</v>
+        <v>180888.9884291364</v>
       </c>
       <c r="C380" t="inlineStr">
         <is>
@@ -8039,11 +8039,11 @@
     <row r="381">
       <c r="A381" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89282.fa</t>
+          <t>even_MAG-GUT89413.fa</t>
         </is>
       </c>
       <c r="B381" t="n">
-        <v>234791.3459079387</v>
+        <v>198917.1854738983</v>
       </c>
       <c r="C381" t="inlineStr">
         <is>
@@ -8059,11 +8059,11 @@
     <row r="382">
       <c r="A382" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89292.fa</t>
+          <t>even_MAG-GUT89577.fa</t>
         </is>
       </c>
       <c r="B382" t="n">
-        <v>194469.157185953</v>
+        <v>222197.4075127287</v>
       </c>
       <c r="C382" t="inlineStr">
         <is>
@@ -8079,11 +8079,11 @@
     <row r="383">
       <c r="A383" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89309.fa</t>
+          <t>even_MAG-GUT89608.fa</t>
         </is>
       </c>
       <c r="B383" t="n">
-        <v>228612.9015230818</v>
+        <v>119129.1264279749</v>
       </c>
       <c r="C383" t="inlineStr">
         <is>
@@ -8099,11 +8099,11 @@
     <row r="384">
       <c r="A384" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89317.fa</t>
+          <t>even_MAG-GUT89668.fa</t>
         </is>
       </c>
       <c r="B384" t="n">
-        <v>204218.669717965</v>
+        <v>153350.9209799267</v>
       </c>
       <c r="C384" t="inlineStr">
         <is>
@@ -8119,7 +8119,7 @@
     <row r="385">
       <c r="A385" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89332.fa</t>
+          <t>even_MAG-GUT89684.fa</t>
         </is>
       </c>
       <c r="B385" t="n">
@@ -8139,11 +8139,11 @@
     <row r="386">
       <c r="A386" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89335.fa</t>
+          <t>even_MAG-GUT89695.fa</t>
         </is>
       </c>
       <c r="B386" t="n">
-        <v>202560.2566780145</v>
+        <v>149600.4232148845</v>
       </c>
       <c r="C386" t="inlineStr">
         <is>
@@ -8159,11 +8159,11 @@
     <row r="387">
       <c r="A387" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89355.fa</t>
+          <t>even_MAG-GUT89697.fa</t>
         </is>
       </c>
       <c r="B387" t="n">
-        <v>187310.8358685724</v>
+        <v>149600.4232148845</v>
       </c>
       <c r="C387" t="inlineStr">
         <is>
@@ -8179,11 +8179,11 @@
     <row r="388">
       <c r="A388" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89363.fa</t>
+          <t>even_MAG-GUT89720.fa</t>
         </is>
       </c>
       <c r="B388" t="n">
-        <v>180888.9884291364</v>
+        <v>198389.9238199346</v>
       </c>
       <c r="C388" t="inlineStr">
         <is>
@@ -8199,11 +8199,11 @@
     <row r="389">
       <c r="A389" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89413.fa</t>
+          <t>even_MAG-GUT89735.fa</t>
         </is>
       </c>
       <c r="B389" t="n">
-        <v>198917.1854738983</v>
+        <v>221449.8195679789</v>
       </c>
       <c r="C389" t="inlineStr">
         <is>
@@ -8219,11 +8219,11 @@
     <row r="390">
       <c r="A390" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89577.fa</t>
+          <t>even_MAG-GUT89747.fa</t>
         </is>
       </c>
       <c r="B390" t="n">
-        <v>222197.4075127287</v>
+        <v>226864.625464834</v>
       </c>
       <c r="C390" t="inlineStr">
         <is>
@@ -8239,11 +8239,11 @@
     <row r="391">
       <c r="A391" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89668.fa</t>
+          <t>even_MAG-GUT89784.fa</t>
         </is>
       </c>
       <c r="B391" t="n">
-        <v>153350.9209799267</v>
+        <v>105485.6260064264</v>
       </c>
       <c r="C391" t="inlineStr">
         <is>
@@ -8259,11 +8259,11 @@
     <row r="392">
       <c r="A392" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89684.fa</t>
+          <t>even_MAG-GUT89815.fa</t>
         </is>
       </c>
       <c r="B392" t="n">
-        <v>153350.9209799267</v>
+        <v>104757.9445800894</v>
       </c>
       <c r="C392" t="inlineStr">
         <is>
@@ -8279,11 +8279,11 @@
     <row r="393">
       <c r="A393" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89695.fa</t>
+          <t>even_MAG-GUT89833.fa</t>
         </is>
       </c>
       <c r="B393" t="n">
-        <v>149600.4232148845</v>
+        <v>251534.5354302917</v>
       </c>
       <c r="C393" t="inlineStr">
         <is>
@@ -8299,11 +8299,11 @@
     <row r="394">
       <c r="A394" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89697.fa</t>
+          <t>even_MAG-GUT89836.fa</t>
         </is>
       </c>
       <c r="B394" t="n">
-        <v>149600.4232148845</v>
+        <v>170615.9409286772</v>
       </c>
       <c r="C394" t="inlineStr">
         <is>
@@ -8319,11 +8319,11 @@
     <row r="395">
       <c r="A395" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89720.fa</t>
+          <t>even_MAG-GUT89852.fa</t>
         </is>
       </c>
       <c r="B395" t="n">
-        <v>198389.9238199346</v>
+        <v>115885.8660318032</v>
       </c>
       <c r="C395" t="inlineStr">
         <is>
@@ -8339,11 +8339,11 @@
     <row r="396">
       <c r="A396" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89735.fa</t>
+          <t>even_MAG-GUT89858.fa</t>
         </is>
       </c>
       <c r="B396" t="n">
-        <v>221449.8195679789</v>
+        <v>153350.9209799267</v>
       </c>
       <c r="C396" t="inlineStr">
         <is>
@@ -8359,11 +8359,11 @@
     <row r="397">
       <c r="A397" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89747.fa</t>
+          <t>even_MAG-GUT89860.fa</t>
         </is>
       </c>
       <c r="B397" t="n">
-        <v>226864.625464834</v>
+        <v>153350.9209799267</v>
       </c>
       <c r="C397" t="inlineStr">
         <is>
@@ -8379,11 +8379,11 @@
     <row r="398">
       <c r="A398" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89772.fa</t>
+          <t>even_MAG-GUT89941.fa</t>
         </is>
       </c>
       <c r="B398" t="n">
-        <v>72339.31897570903</v>
+        <v>153350.9209799267</v>
       </c>
       <c r="C398" t="inlineStr">
         <is>
@@ -8399,11 +8399,11 @@
     <row r="399">
       <c r="A399" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89784.fa</t>
+          <t>even_MAG-GUT89992.fa</t>
         </is>
       </c>
       <c r="B399" t="n">
-        <v>105485.6260064264</v>
+        <v>176646.260186426</v>
       </c>
       <c r="C399" t="inlineStr">
         <is>
@@ -8419,11 +8419,11 @@
     <row r="400">
       <c r="A400" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89815.fa</t>
+          <t>even_MAG-GUT90020.fa</t>
         </is>
       </c>
       <c r="B400" t="n">
-        <v>104757.9445800894</v>
+        <v>95128.19263020174</v>
       </c>
       <c r="C400" t="inlineStr">
         <is>
@@ -8439,11 +8439,11 @@
     <row r="401">
       <c r="A401" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89816.fa</t>
+          <t>even_MAG-GUT90054.fa</t>
         </is>
       </c>
       <c r="B401" t="n">
-        <v>64635.26876899967</v>
+        <v>85453.92411267012</v>
       </c>
       <c r="C401" t="inlineStr">
         <is>
@@ -8459,11 +8459,11 @@
     <row r="402">
       <c r="A402" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89833.fa</t>
+          <t>even_MAG-GUT90064.fa</t>
         </is>
       </c>
       <c r="B402" t="n">
-        <v>251534.5354302917</v>
+        <v>165633.4623069163</v>
       </c>
       <c r="C402" t="inlineStr">
         <is>
@@ -8479,11 +8479,11 @@
     <row r="403">
       <c r="A403" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89836.fa</t>
+          <t>even_MAG-GUT90077.fa</t>
         </is>
       </c>
       <c r="B403" t="n">
-        <v>170615.9409286772</v>
+        <v>156669.4607380121</v>
       </c>
       <c r="C403" t="inlineStr">
         <is>
@@ -8499,11 +8499,11 @@
     <row r="404">
       <c r="A404" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89851.fa</t>
+          <t>even_MAG-GUT90090.fa</t>
         </is>
       </c>
       <c r="B404" t="n">
-        <v>64635.26876899967</v>
+        <v>267911.945018805</v>
       </c>
       <c r="C404" t="inlineStr">
         <is>
@@ -8519,11 +8519,11 @@
     <row r="405">
       <c r="A405" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89852.fa</t>
+          <t>even_MAG-GUT90107.fa</t>
         </is>
       </c>
       <c r="B405" t="n">
-        <v>115885.8660318032</v>
+        <v>187310.8358685724</v>
       </c>
       <c r="C405" t="inlineStr">
         <is>
@@ -8539,11 +8539,11 @@
     <row r="406">
       <c r="A406" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89858.fa</t>
+          <t>even_MAG-GUT90127.fa</t>
         </is>
       </c>
       <c r="B406" t="n">
-        <v>153350.9209799267</v>
+        <v>165017.3803024312</v>
       </c>
       <c r="C406" t="inlineStr">
         <is>
@@ -8559,11 +8559,11 @@
     <row r="407">
       <c r="A407" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89860.fa</t>
+          <t>even_MAG-GUT90167.fa</t>
         </is>
       </c>
       <c r="B407" t="n">
-        <v>153350.9209799267</v>
+        <v>187310.8358685724</v>
       </c>
       <c r="C407" t="inlineStr">
         <is>
@@ -8579,11 +8579,11 @@
     <row r="408">
       <c r="A408" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89941.fa</t>
+          <t>even_MAG-GUT90189.fa</t>
         </is>
       </c>
       <c r="B408" t="n">
-        <v>153350.9209799267</v>
+        <v>187310.8358685724</v>
       </c>
       <c r="C408" t="inlineStr">
         <is>
@@ -8599,11 +8599,11 @@
     <row r="409">
       <c r="A409" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT89992.fa</t>
+          <t>even_MAG-GUT90251.fa</t>
         </is>
       </c>
       <c r="B409" t="n">
-        <v>176646.260186426</v>
+        <v>156669.4607380121</v>
       </c>
       <c r="C409" t="inlineStr">
         <is>
@@ -8619,11 +8619,11 @@
     <row r="410">
       <c r="A410" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90054.fa</t>
+          <t>even_MAG-GUT90266.fa</t>
         </is>
       </c>
       <c r="B410" t="n">
-        <v>85453.92411267012</v>
+        <v>207328.1109629175</v>
       </c>
       <c r="C410" t="inlineStr">
         <is>
@@ -8639,11 +8639,11 @@
     <row r="411">
       <c r="A411" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90064.fa</t>
+          <t>even_MAG-GUT90291.fa</t>
         </is>
       </c>
       <c r="B411" t="n">
-        <v>165633.4623069163</v>
+        <v>204218.669717965</v>
       </c>
       <c r="C411" t="inlineStr">
         <is>
@@ -8659,11 +8659,11 @@
     <row r="412">
       <c r="A412" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90077.fa</t>
+          <t>even_MAG-GUT90362.fa</t>
         </is>
       </c>
       <c r="B412" t="n">
-        <v>156669.4607380121</v>
+        <v>87461.18692968355</v>
       </c>
       <c r="C412" t="inlineStr">
         <is>
@@ -8679,11 +8679,11 @@
     <row r="413">
       <c r="A413" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90090.fa</t>
+          <t>even_MAG-GUT90368.fa</t>
         </is>
       </c>
       <c r="B413" t="n">
-        <v>267911.945018805</v>
+        <v>157236.3901969169</v>
       </c>
       <c r="C413" t="inlineStr">
         <is>
@@ -8699,11 +8699,11 @@
     <row r="414">
       <c r="A414" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90107.fa</t>
+          <t>even_MAG-GUT90390.fa</t>
         </is>
       </c>
       <c r="B414" t="n">
-        <v>187310.8358685724</v>
+        <v>176646.260186426</v>
       </c>
       <c r="C414" t="inlineStr">
         <is>
@@ -8719,11 +8719,11 @@
     <row r="415">
       <c r="A415" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90127.fa</t>
+          <t>even_MAG-GUT90429.fa</t>
         </is>
       </c>
       <c r="B415" t="n">
-        <v>165017.3803024312</v>
+        <v>202054.5640478838</v>
       </c>
       <c r="C415" t="inlineStr">
         <is>
@@ -8739,11 +8739,11 @@
     <row r="416">
       <c r="A416" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90143.fa</t>
+          <t>even_MAG-GUT90441.fa</t>
         </is>
       </c>
       <c r="B416" t="n">
-        <v>64635.26876899967</v>
+        <v>113168.2358607154</v>
       </c>
       <c r="C416" t="inlineStr">
         <is>
@@ -8759,11 +8759,11 @@
     <row r="417">
       <c r="A417" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90167.fa</t>
+          <t>even_MAG-GUT90444.fa</t>
         </is>
       </c>
       <c r="B417" t="n">
-        <v>187310.8358685724</v>
+        <v>153350.9209799267</v>
       </c>
       <c r="C417" t="inlineStr">
         <is>
@@ -8779,11 +8779,11 @@
     <row r="418">
       <c r="A418" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90189.fa</t>
+          <t>even_MAG-GUT90475.fa</t>
         </is>
       </c>
       <c r="B418" t="n">
-        <v>187310.8358685724</v>
+        <v>153350.9209799267</v>
       </c>
       <c r="C418" t="inlineStr">
         <is>
@@ -8799,11 +8799,11 @@
     <row r="419">
       <c r="A419" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90251.fa</t>
+          <t>even_MAG-GUT90505.fa</t>
         </is>
       </c>
       <c r="B419" t="n">
-        <v>156669.4607380121</v>
+        <v>194617.1029039834</v>
       </c>
       <c r="C419" t="inlineStr">
         <is>
@@ -8819,11 +8819,11 @@
     <row r="420">
       <c r="A420" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90266.fa</t>
+          <t>even_MAG-GUT90508.fa</t>
         </is>
       </c>
       <c r="B420" t="n">
-        <v>207328.1109629175</v>
+        <v>149600.4232148845</v>
       </c>
       <c r="C420" t="inlineStr">
         <is>
@@ -8839,11 +8839,11 @@
     <row r="421">
       <c r="A421" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90291.fa</t>
+          <t>even_MAG-GUT90581.fa</t>
         </is>
       </c>
       <c r="B421" t="n">
-        <v>204218.669717965</v>
+        <v>153350.9209799267</v>
       </c>
       <c r="C421" t="inlineStr">
         <is>
@@ -8859,11 +8859,11 @@
     <row r="422">
       <c r="A422" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90362.fa</t>
+          <t>even_MAG-GUT90598.fa</t>
         </is>
       </c>
       <c r="B422" t="n">
-        <v>87461.18692968355</v>
+        <v>156669.4607380121</v>
       </c>
       <c r="C422" t="inlineStr">
         <is>
@@ -8879,11 +8879,11 @@
     <row r="423">
       <c r="A423" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90368.fa</t>
+          <t>even_MAG-GUT90630.fa</t>
         </is>
       </c>
       <c r="B423" t="n">
-        <v>157236.3901969169</v>
+        <v>156669.4607380121</v>
       </c>
       <c r="C423" t="inlineStr">
         <is>
@@ -8899,11 +8899,11 @@
     <row r="424">
       <c r="A424" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90390.fa</t>
+          <t>even_MAG-GUT90636.fa</t>
         </is>
       </c>
       <c r="B424" t="n">
-        <v>176646.260186426</v>
+        <v>155025.1373645205</v>
       </c>
       <c r="C424" t="inlineStr">
         <is>
@@ -8919,11 +8919,11 @@
     <row r="425">
       <c r="A425" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90408.fa</t>
+          <t>even_MAG-GUT90682.fa</t>
         </is>
       </c>
       <c r="B425" t="n">
-        <v>64635.26876899967</v>
+        <v>106610.0360631957</v>
       </c>
       <c r="C425" t="inlineStr">
         <is>
@@ -8939,11 +8939,11 @@
     <row r="426">
       <c r="A426" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90429.fa</t>
+          <t>even_MAG-GUT90694.fa</t>
         </is>
       </c>
       <c r="B426" t="n">
-        <v>202054.5640478838</v>
+        <v>235667.6268027985</v>
       </c>
       <c r="C426" t="inlineStr">
         <is>
@@ -8959,11 +8959,11 @@
     <row r="427">
       <c r="A427" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90441.fa</t>
+          <t>even_MAG-GUT90777.fa</t>
         </is>
       </c>
       <c r="B427" t="n">
-        <v>113168.2358607154</v>
+        <v>164523.5304446714</v>
       </c>
       <c r="C427" t="inlineStr">
         <is>
@@ -8979,11 +8979,11 @@
     <row r="428">
       <c r="A428" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90442.fa</t>
+          <t>even_MAG-GUT90901.fa</t>
         </is>
       </c>
       <c r="B428" t="n">
-        <v>66040.62765278919</v>
+        <v>173618.2216731285</v>
       </c>
       <c r="C428" t="inlineStr">
         <is>
@@ -8999,7 +8999,7 @@
     <row r="429">
       <c r="A429" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90444.fa</t>
+          <t>even_MAG-GUT90913.fa</t>
         </is>
       </c>
       <c r="B429" t="n">
@@ -9019,11 +9019,11 @@
     <row r="430">
       <c r="A430" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90475.fa</t>
+          <t>even_MAG-GUT90946.fa</t>
         </is>
       </c>
       <c r="B430" t="n">
-        <v>153350.9209799267</v>
+        <v>194617.1029039834</v>
       </c>
       <c r="C430" t="inlineStr">
         <is>
@@ -9039,11 +9039,11 @@
     <row r="431">
       <c r="A431" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90505.fa</t>
+          <t>even_MAG-GUT90963.fa</t>
         </is>
       </c>
       <c r="B431" t="n">
-        <v>194617.1029039834</v>
+        <v>87916.98345371499</v>
       </c>
       <c r="C431" t="inlineStr">
         <is>
@@ -9059,11 +9059,11 @@
     <row r="432">
       <c r="A432" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90508.fa</t>
+          <t>even_MAG-GUT90975.fa</t>
         </is>
       </c>
       <c r="B432" t="n">
-        <v>149600.4232148845</v>
+        <v>194617.1029039834</v>
       </c>
       <c r="C432" t="inlineStr">
         <is>
@@ -9079,11 +9079,11 @@
     <row r="433">
       <c r="A433" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90581.fa</t>
+          <t>even_MAG-GUT91014.fa</t>
         </is>
       </c>
       <c r="B433" t="n">
-        <v>153350.9209799267</v>
+        <v>113168.2358607154</v>
       </c>
       <c r="C433" t="inlineStr">
         <is>
@@ -9099,11 +9099,11 @@
     <row r="434">
       <c r="A434" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90598.fa</t>
+          <t>even_MAG-GUT91032.fa</t>
         </is>
       </c>
       <c r="B434" t="n">
-        <v>156669.4607380121</v>
+        <v>156214.5193328568</v>
       </c>
       <c r="C434" t="inlineStr">
         <is>
@@ -9119,11 +9119,11 @@
     <row r="435">
       <c r="A435" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90615.fa</t>
+          <t>even_MAG-GUT91072.fa</t>
         </is>
       </c>
       <c r="B435" t="n">
-        <v>64635.26876899967</v>
+        <v>198917.1854738983</v>
       </c>
       <c r="C435" t="inlineStr">
         <is>
@@ -9139,11 +9139,11 @@
     <row r="436">
       <c r="A436" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90630.fa</t>
+          <t>even_MAG-GUT91110.fa</t>
         </is>
       </c>
       <c r="B436" t="n">
-        <v>156669.4607380121</v>
+        <v>251534.5354302917</v>
       </c>
       <c r="C436" t="inlineStr">
         <is>
@@ -9159,11 +9159,11 @@
     <row r="437">
       <c r="A437" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90636.fa</t>
+          <t>even_MAG-GUT91119.fa</t>
         </is>
       </c>
       <c r="B437" t="n">
-        <v>155025.1373645205</v>
+        <v>194617.1029039834</v>
       </c>
       <c r="C437" t="inlineStr">
         <is>
@@ -9179,11 +9179,11 @@
     <row r="438">
       <c r="A438" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90683.fa</t>
+          <t>even_MAG-GUT91131.fa</t>
         </is>
       </c>
       <c r="B438" t="n">
-        <v>64635.26876899967</v>
+        <v>176646.260186426</v>
       </c>
       <c r="C438" t="inlineStr">
         <is>
@@ -9199,11 +9199,11 @@
     <row r="439">
       <c r="A439" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90694.fa</t>
+          <t>even_MAG-GUT91135.fa</t>
         </is>
       </c>
       <c r="B439" t="n">
-        <v>235667.6268027985</v>
+        <v>194617.1029039834</v>
       </c>
       <c r="C439" t="inlineStr">
         <is>
@@ -9219,11 +9219,11 @@
     <row r="440">
       <c r="A440" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90730.fa</t>
+          <t>even_MAG-GUT91144.fa</t>
         </is>
       </c>
       <c r="B440" t="n">
-        <v>94218.84667138016</v>
+        <v>149600.4232148845</v>
       </c>
       <c r="C440" t="inlineStr">
         <is>
@@ -9239,11 +9239,11 @@
     <row r="441">
       <c r="A441" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90777.fa</t>
+          <t>even_MAG-GUT91192.fa</t>
         </is>
       </c>
       <c r="B441" t="n">
-        <v>164523.5304446714</v>
+        <v>131160.2557795979</v>
       </c>
       <c r="C441" t="inlineStr">
         <is>
@@ -9259,11 +9259,11 @@
     <row r="442">
       <c r="A442" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90901.fa</t>
+          <t>even_MAG-GUT91196.fa</t>
         </is>
       </c>
       <c r="B442" t="n">
-        <v>173618.2216731285</v>
+        <v>160500.4700392109</v>
       </c>
       <c r="C442" t="inlineStr">
         <is>
@@ -9279,11 +9279,11 @@
     <row r="443">
       <c r="A443" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90913.fa</t>
+          <t>even_MAG-GUT91199.fa</t>
         </is>
       </c>
       <c r="B443" t="n">
-        <v>153350.9209799267</v>
+        <v>244859.8301367386</v>
       </c>
       <c r="C443" t="inlineStr">
         <is>
@@ -9299,11 +9299,11 @@
     <row r="444">
       <c r="A444" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90941.fa</t>
+          <t>even_MAG-GUT91251.fa</t>
         </is>
       </c>
       <c r="B444" t="n">
-        <v>99248.85860081627</v>
+        <v>173437.7511362854</v>
       </c>
       <c r="C444" t="inlineStr">
         <is>
@@ -9319,11 +9319,11 @@
     <row r="445">
       <c r="A445" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90946.fa</t>
+          <t>even_MAG-GUT91262.fa</t>
         </is>
       </c>
       <c r="B445" t="n">
-        <v>194617.1029039834</v>
+        <v>146229.7576852962</v>
       </c>
       <c r="C445" t="inlineStr">
         <is>
@@ -9339,11 +9339,11 @@
     <row r="446">
       <c r="A446" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90963.fa</t>
+          <t>even_MAG-GUT91264.fa</t>
         </is>
       </c>
       <c r="B446" t="n">
-        <v>87916.98345371499</v>
+        <v>150242.6129923581</v>
       </c>
       <c r="C446" t="inlineStr">
         <is>
@@ -9359,11 +9359,11 @@
     <row r="447">
       <c r="A447" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90975.fa</t>
+          <t>even_MAG-GUT91265.fa</t>
         </is>
       </c>
       <c r="B447" t="n">
-        <v>194617.1029039834</v>
+        <v>210627.4756125262</v>
       </c>
       <c r="C447" t="inlineStr">
         <is>
@@ -9379,11 +9379,11 @@
     <row r="448">
       <c r="A448" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT90996.fa</t>
+          <t>even_MAG-GUT91267.fa</t>
         </is>
       </c>
       <c r="B448" t="n">
-        <v>64635.26876899967</v>
+        <v>146229.7576852962</v>
       </c>
       <c r="C448" t="inlineStr">
         <is>
@@ -9399,11 +9399,11 @@
     <row r="449">
       <c r="A449" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91012.fa</t>
+          <t>even_MAG-GUT91272.fa</t>
         </is>
       </c>
       <c r="B449" t="n">
-        <v>64635.26876899967</v>
+        <v>145542.8473165131</v>
       </c>
       <c r="C449" t="inlineStr">
         <is>
@@ -9419,11 +9419,11 @@
     <row r="450">
       <c r="A450" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91014.fa</t>
+          <t>even_MAG-GUT91297.fa</t>
         </is>
       </c>
       <c r="B450" t="n">
-        <v>113168.2358607154</v>
+        <v>146498.4283959713</v>
       </c>
       <c r="C450" t="inlineStr">
         <is>
@@ -9439,11 +9439,11 @@
     <row r="451">
       <c r="A451" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91032.fa</t>
+          <t>even_MAG-GUT91303.fa</t>
         </is>
       </c>
       <c r="B451" t="n">
-        <v>156214.5193328568</v>
+        <v>128788.2045063468</v>
       </c>
       <c r="C451" t="inlineStr">
         <is>
@@ -9459,11 +9459,11 @@
     <row r="452">
       <c r="A452" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91072.fa</t>
+          <t>even_MAG-GUT91320.fa</t>
         </is>
       </c>
       <c r="B452" t="n">
-        <v>198917.1854738983</v>
+        <v>163484.604144641</v>
       </c>
       <c r="C452" t="inlineStr">
         <is>
@@ -9479,11 +9479,11 @@
     <row r="453">
       <c r="A453" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91110.fa</t>
+          <t>even_MAG-GUT91328.fa</t>
         </is>
       </c>
       <c r="B453" t="n">
-        <v>251534.5354302917</v>
+        <v>150182.6316828302</v>
       </c>
       <c r="C453" t="inlineStr">
         <is>
@@ -9499,11 +9499,11 @@
     <row r="454">
       <c r="A454" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91119.fa</t>
+          <t>even_MAG-GUT91330.fa</t>
         </is>
       </c>
       <c r="B454" t="n">
-        <v>194617.1029039834</v>
+        <v>161611.0378928551</v>
       </c>
       <c r="C454" t="inlineStr">
         <is>
@@ -9519,11 +9519,11 @@
     <row r="455">
       <c r="A455" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91131.fa</t>
+          <t>even_MAG-GUT91355.fa</t>
         </is>
       </c>
       <c r="B455" t="n">
-        <v>176646.260186426</v>
+        <v>200584.9753983271</v>
       </c>
       <c r="C455" t="inlineStr">
         <is>
@@ -9539,11 +9539,11 @@
     <row r="456">
       <c r="A456" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91135.fa</t>
+          <t>even_MAG-GUT91359.fa</t>
         </is>
       </c>
       <c r="B456" t="n">
-        <v>194617.1029039834</v>
+        <v>201271.6318076221</v>
       </c>
       <c r="C456" t="inlineStr">
         <is>
@@ -9559,11 +9559,11 @@
     <row r="457">
       <c r="A457" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91144.fa</t>
+          <t>even_MAG-GUT91370.fa</t>
         </is>
       </c>
       <c r="B457" t="n">
-        <v>149600.4232148845</v>
+        <v>228125.7856321877</v>
       </c>
       <c r="C457" t="inlineStr">
         <is>
@@ -9579,11 +9579,11 @@
     <row r="458">
       <c r="A458" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91192.fa</t>
+          <t>even_MAG-GUT91379.fa</t>
         </is>
       </c>
       <c r="B458" t="n">
-        <v>131160.2557795979</v>
+        <v>213647.6940115189</v>
       </c>
       <c r="C458" t="inlineStr">
         <is>
@@ -9599,11 +9599,11 @@
     <row r="459">
       <c r="A459" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91196.fa</t>
+          <t>even_MAG-GUT91385.fa</t>
         </is>
       </c>
       <c r="B459" t="n">
-        <v>160500.4700392109</v>
+        <v>133477.8488340852</v>
       </c>
       <c r="C459" t="inlineStr">
         <is>
@@ -9619,11 +9619,11 @@
     <row r="460">
       <c r="A460" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91199.fa</t>
+          <t>even_MAG-GUT91430.fa</t>
         </is>
       </c>
       <c r="B460" t="n">
-        <v>244859.8301367386</v>
+        <v>231377.6868289784</v>
       </c>
       <c r="C460" t="inlineStr">
         <is>
@@ -9639,11 +9639,11 @@
     <row r="461">
       <c r="A461" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91251.fa</t>
+          <t>even_MAG-GUT91432.fa</t>
         </is>
       </c>
       <c r="B461" t="n">
-        <v>173437.7511362854</v>
+        <v>202749.2293866925</v>
       </c>
       <c r="C461" t="inlineStr">
         <is>
@@ -9659,11 +9659,11 @@
     <row r="462">
       <c r="A462" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91262.fa</t>
+          <t>even_MAG-GUT91468.fa</t>
         </is>
       </c>
       <c r="B462" t="n">
-        <v>146229.7576852962</v>
+        <v>132119.5142637044</v>
       </c>
       <c r="C462" t="inlineStr">
         <is>
@@ -9679,11 +9679,11 @@
     <row r="463">
       <c r="A463" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91264.fa</t>
+          <t>even_MAG-GUT91470.fa</t>
         </is>
       </c>
       <c r="B463" t="n">
-        <v>150242.6129923581</v>
+        <v>153177.3584784595</v>
       </c>
       <c r="C463" t="inlineStr">
         <is>
@@ -9699,11 +9699,11 @@
     <row r="464">
       <c r="A464" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91265.fa</t>
+          <t>even_MAG-GUT91486.fa</t>
         </is>
       </c>
       <c r="B464" t="n">
-        <v>210627.4756125262</v>
+        <v>132119.5142637044</v>
       </c>
       <c r="C464" t="inlineStr">
         <is>
@@ -9719,11 +9719,11 @@
     <row r="465">
       <c r="A465" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91267.fa</t>
+          <t>even_MAG-GUT91490.fa</t>
         </is>
       </c>
       <c r="B465" t="n">
-        <v>146229.7576852962</v>
+        <v>132135.8611161343</v>
       </c>
       <c r="C465" t="inlineStr">
         <is>
@@ -9739,11 +9739,11 @@
     <row r="466">
       <c r="A466" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91272.fa</t>
+          <t>even_MAG-GUT91491.fa</t>
         </is>
       </c>
       <c r="B466" t="n">
-        <v>145542.8473165131</v>
+        <v>155436.287806415</v>
       </c>
       <c r="C466" t="inlineStr">
         <is>
@@ -9759,11 +9759,11 @@
     <row r="467">
       <c r="A467" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91297.fa</t>
+          <t>even_MAG-GUT91492.fa</t>
         </is>
       </c>
       <c r="B467" t="n">
-        <v>146498.4283959713</v>
+        <v>153343.0064055122</v>
       </c>
       <c r="C467" t="inlineStr">
         <is>
@@ -9779,11 +9779,11 @@
     <row r="468">
       <c r="A468" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91303.fa</t>
+          <t>even_MAG-GUT91493.fa</t>
         </is>
       </c>
       <c r="B468" t="n">
-        <v>128788.2045063468</v>
+        <v>196131.8531536152</v>
       </c>
       <c r="C468" t="inlineStr">
         <is>
@@ -9799,11 +9799,11 @@
     <row r="469">
       <c r="A469" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91320.fa</t>
+          <t>even_MAG-GUT91496.fa</t>
         </is>
       </c>
       <c r="B469" t="n">
-        <v>163484.604144641</v>
+        <v>131583.7909793486</v>
       </c>
       <c r="C469" t="inlineStr">
         <is>
@@ -9819,11 +9819,11 @@
     <row r="470">
       <c r="A470" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91330.fa</t>
+          <t>even_MAG-GUT915.fa</t>
         </is>
       </c>
       <c r="B470" t="n">
-        <v>161611.0378928551</v>
+        <v>166743.3800086573</v>
       </c>
       <c r="C470" t="inlineStr">
         <is>
@@ -9839,11 +9839,11 @@
     <row r="471">
       <c r="A471" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91355.fa</t>
+          <t>even_MAG-GUT91520.fa</t>
         </is>
       </c>
       <c r="B471" t="n">
-        <v>200584.9753983271</v>
+        <v>163149.1988578514</v>
       </c>
       <c r="C471" t="inlineStr">
         <is>
@@ -9859,11 +9859,11 @@
     <row r="472">
       <c r="A472" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91359.fa</t>
+          <t>even_MAG-GUT91536.fa</t>
         </is>
       </c>
       <c r="B472" t="n">
-        <v>201271.6318076221</v>
+        <v>144878.3631743564</v>
       </c>
       <c r="C472" t="inlineStr">
         <is>
@@ -9879,11 +9879,11 @@
     <row r="473">
       <c r="A473" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91370.fa</t>
+          <t>even_MAG-GUT91537.fa</t>
         </is>
       </c>
       <c r="B473" t="n">
-        <v>228125.7856321877</v>
+        <v>232771.0970679892</v>
       </c>
       <c r="C473" t="inlineStr">
         <is>
@@ -9899,11 +9899,11 @@
     <row r="474">
       <c r="A474" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91379.fa</t>
+          <t>even_MAG-GUT91546.fa</t>
         </is>
       </c>
       <c r="B474" t="n">
-        <v>213647.6940115189</v>
+        <v>167312.0258462413</v>
       </c>
       <c r="C474" t="inlineStr">
         <is>
@@ -9919,11 +9919,11 @@
     <row r="475">
       <c r="A475" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91385.fa</t>
+          <t>even_MAG-GUT91568.fa</t>
         </is>
       </c>
       <c r="B475" t="n">
-        <v>133477.8488340852</v>
+        <v>156731.0042667541</v>
       </c>
       <c r="C475" t="inlineStr">
         <is>
@@ -9939,11 +9939,11 @@
     <row r="476">
       <c r="A476" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91430.fa</t>
+          <t>even_MAG-GUT91584.fa</t>
         </is>
       </c>
       <c r="B476" t="n">
-        <v>231377.6868289784</v>
+        <v>214604.4910260646</v>
       </c>
       <c r="C476" t="inlineStr">
         <is>
@@ -9959,11 +9959,11 @@
     <row r="477">
       <c r="A477" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91432.fa</t>
+          <t>even_MAG-GUT91622.fa</t>
         </is>
       </c>
       <c r="B477" t="n">
-        <v>202749.2293866925</v>
+        <v>196440.7819739642</v>
       </c>
       <c r="C477" t="inlineStr">
         <is>
@@ -9979,11 +9979,11 @@
     <row r="478">
       <c r="A478" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91468.fa</t>
+          <t>even_MAG-GUT91705.fa</t>
         </is>
       </c>
       <c r="B478" t="n">
-        <v>132119.5142637044</v>
+        <v>210121.8613120824</v>
       </c>
       <c r="C478" t="inlineStr">
         <is>
@@ -9999,11 +9999,11 @@
     <row r="479">
       <c r="A479" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91470.fa</t>
+          <t>even_MAG-GUT91712.fa</t>
         </is>
       </c>
       <c r="B479" t="n">
-        <v>153177.3584784595</v>
+        <v>141308.5354522335</v>
       </c>
       <c r="C479" t="inlineStr">
         <is>
@@ -10019,11 +10019,11 @@
     <row r="480">
       <c r="A480" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91486.fa</t>
+          <t>even_MAG-GUT91717.fa</t>
         </is>
       </c>
       <c r="B480" t="n">
-        <v>132119.5142637044</v>
+        <v>166103.0240651629</v>
       </c>
       <c r="C480" t="inlineStr">
         <is>
@@ -10039,11 +10039,11 @@
     <row r="481">
       <c r="A481" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91490.fa</t>
+          <t>even_MAG-GUT91736.fa</t>
         </is>
       </c>
       <c r="B481" t="n">
-        <v>132135.8611161343</v>
+        <v>169403.3314025687</v>
       </c>
       <c r="C481" t="inlineStr">
         <is>
@@ -10059,11 +10059,11 @@
     <row r="482">
       <c r="A482" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91491.fa</t>
+          <t>even_MAG-GUT91762.fa</t>
         </is>
       </c>
       <c r="B482" t="n">
-        <v>155436.287806415</v>
+        <v>170253.0756205434</v>
       </c>
       <c r="C482" t="inlineStr">
         <is>
@@ -10079,11 +10079,11 @@
     <row r="483">
       <c r="A483" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91492.fa</t>
+          <t>even_MAG-GUT91779.fa</t>
         </is>
       </c>
       <c r="B483" t="n">
-        <v>153343.0064055122</v>
+        <v>151469.273751324</v>
       </c>
       <c r="C483" t="inlineStr">
         <is>
@@ -10099,11 +10099,11 @@
     <row r="484">
       <c r="A484" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91493.fa</t>
+          <t>even_MAG-GUT91815.fa</t>
         </is>
       </c>
       <c r="B484" t="n">
-        <v>196131.8531536152</v>
+        <v>124701.7739756932</v>
       </c>
       <c r="C484" t="inlineStr">
         <is>
@@ -10119,11 +10119,11 @@
     <row r="485">
       <c r="A485" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91496.fa</t>
+          <t>even_MAG-GUT91816.fa</t>
         </is>
       </c>
       <c r="B485" t="n">
-        <v>131583.7909793486</v>
+        <v>184089.3583646905</v>
       </c>
       <c r="C485" t="inlineStr">
         <is>
@@ -10139,11 +10139,11 @@
     <row r="486">
       <c r="A486" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT915.fa</t>
+          <t>even_MAG-GUT91818.fa</t>
         </is>
       </c>
       <c r="B486" t="n">
-        <v>166743.3800086573</v>
+        <v>124701.7739756932</v>
       </c>
       <c r="C486" t="inlineStr">
         <is>
@@ -10159,11 +10159,11 @@
     <row r="487">
       <c r="A487" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91520.fa</t>
+          <t>even_MAG-GUT91821.fa</t>
         </is>
       </c>
       <c r="B487" t="n">
-        <v>163149.1988578514</v>
+        <v>170973.6391123302</v>
       </c>
       <c r="C487" t="inlineStr">
         <is>
@@ -10179,11 +10179,11 @@
     <row r="488">
       <c r="A488" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91536.fa</t>
+          <t>even_MAG-GUT91823.fa</t>
         </is>
       </c>
       <c r="B488" t="n">
-        <v>144878.3631743564</v>
+        <v>153088.9856054576</v>
       </c>
       <c r="C488" t="inlineStr">
         <is>
@@ -10199,11 +10199,11 @@
     <row r="489">
       <c r="A489" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91537.fa</t>
+          <t>even_MAG-GUT91830.fa</t>
         </is>
       </c>
       <c r="B489" t="n">
-        <v>232771.0970679892</v>
+        <v>226642.0978524758</v>
       </c>
       <c r="C489" t="inlineStr">
         <is>
@@ -10219,11 +10219,11 @@
     <row r="490">
       <c r="A490" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91546.fa</t>
+          <t>even_MAG-GUT91833.fa</t>
         </is>
       </c>
       <c r="B490" t="n">
-        <v>167312.0258462413</v>
+        <v>148261.9534877843</v>
       </c>
       <c r="C490" t="inlineStr">
         <is>
@@ -10239,11 +10239,11 @@
     <row r="491">
       <c r="A491" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91568.fa</t>
+          <t>even_MAG-GUT91860.fa</t>
         </is>
       </c>
       <c r="B491" t="n">
-        <v>156731.0042667541</v>
+        <v>109537.4986338088</v>
       </c>
       <c r="C491" t="inlineStr">
         <is>
@@ -10259,11 +10259,11 @@
     <row r="492">
       <c r="A492" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91584.fa</t>
+          <t>even_MAG-GUT91882.fa</t>
         </is>
       </c>
       <c r="B492" t="n">
-        <v>214604.4910260646</v>
+        <v>149454.6550761132</v>
       </c>
       <c r="C492" t="inlineStr">
         <is>
@@ -10279,11 +10279,11 @@
     <row r="493">
       <c r="A493" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91622.fa</t>
+          <t>even_MAG-GUT91886.fa</t>
         </is>
       </c>
       <c r="B493" t="n">
-        <v>196440.7819739642</v>
+        <v>181893.7723791951</v>
       </c>
       <c r="C493" t="inlineStr">
         <is>
@@ -10299,11 +10299,11 @@
     <row r="494">
       <c r="A494" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91705.fa</t>
+          <t>even_MAG-GUT91887.fa</t>
         </is>
       </c>
       <c r="B494" t="n">
-        <v>210121.8613120824</v>
+        <v>220524.5950769555</v>
       </c>
       <c r="C494" t="inlineStr">
         <is>
@@ -10319,11 +10319,11 @@
     <row r="495">
       <c r="A495" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91712.fa</t>
+          <t>even_MAG-GUT91911.fa</t>
         </is>
       </c>
       <c r="B495" t="n">
-        <v>141308.5354522335</v>
+        <v>139591.1556526294</v>
       </c>
       <c r="C495" t="inlineStr">
         <is>
@@ -10339,11 +10339,11 @@
     <row r="496">
       <c r="A496" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91717.fa</t>
+          <t>even_MAG-GUT91912.fa</t>
         </is>
       </c>
       <c r="B496" t="n">
-        <v>166103.0240651629</v>
+        <v>158165.7871752279</v>
       </c>
       <c r="C496" t="inlineStr">
         <is>
@@ -10359,11 +10359,11 @@
     <row r="497">
       <c r="A497" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91736.fa</t>
+          <t>even_MAG-GUT91923.fa</t>
         </is>
       </c>
       <c r="B497" t="n">
-        <v>169403.3314025687</v>
+        <v>146500.4099660765</v>
       </c>
       <c r="C497" t="inlineStr">
         <is>
@@ -10379,11 +10379,11 @@
     <row r="498">
       <c r="A498" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91762.fa</t>
+          <t>even_MAG-GUT91926.fa</t>
         </is>
       </c>
       <c r="B498" t="n">
-        <v>170253.0756205434</v>
+        <v>161471.2307962728</v>
       </c>
       <c r="C498" t="inlineStr">
         <is>
@@ -10399,11 +10399,11 @@
     <row r="499">
       <c r="A499" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91779.fa</t>
+          <t>even_MAG-GUT91932.fa</t>
         </is>
       </c>
       <c r="B499" t="n">
-        <v>151469.273751324</v>
+        <v>157000.1685425168</v>
       </c>
       <c r="C499" t="inlineStr">
         <is>
@@ -10419,11 +10419,11 @@
     <row r="500">
       <c r="A500" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91793.fa</t>
+          <t>even_MAG-GUT91939.fa</t>
         </is>
       </c>
       <c r="B500" t="n">
-        <v>72148.82370802821</v>
+        <v>206371.7875659065</v>
       </c>
       <c r="C500" t="inlineStr">
         <is>
@@ -10439,11 +10439,11 @@
     <row r="501">
       <c r="A501" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91815.fa</t>
+          <t>even_MAG-GUT91941.fa</t>
         </is>
       </c>
       <c r="B501" t="n">
-        <v>124701.7739756932</v>
+        <v>163981.5290378628</v>
       </c>
       <c r="C501" t="inlineStr">
         <is>
@@ -10459,11 +10459,11 @@
     <row r="502">
       <c r="A502" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91816.fa</t>
+          <t>even_MAG-GUT91943.fa</t>
         </is>
       </c>
       <c r="B502" t="n">
-        <v>184089.3583646905</v>
+        <v>166095.4865920786</v>
       </c>
       <c r="C502" t="inlineStr">
         <is>
@@ -10479,11 +10479,11 @@
     <row r="503">
       <c r="A503" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91818.fa</t>
+          <t>even_MAG-GUT91954.fa</t>
         </is>
       </c>
       <c r="B503" t="n">
-        <v>124701.7739756932</v>
+        <v>163708.1898953384</v>
       </c>
       <c r="C503" t="inlineStr">
         <is>
@@ -10499,11 +10499,11 @@
     <row r="504">
       <c r="A504" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91821.fa</t>
+          <t>even_MAG-GUT91958.fa</t>
         </is>
       </c>
       <c r="B504" t="n">
-        <v>170973.6391123302</v>
+        <v>183634.8758060238</v>
       </c>
       <c r="C504" t="inlineStr">
         <is>
@@ -10519,11 +10519,11 @@
     <row r="505">
       <c r="A505" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91823.fa</t>
+          <t>even_MAG-GUT91960.fa</t>
         </is>
       </c>
       <c r="B505" t="n">
-        <v>153088.9856054576</v>
+        <v>175427.2390966073</v>
       </c>
       <c r="C505" t="inlineStr">
         <is>
@@ -10539,11 +10539,11 @@
     <row r="506">
       <c r="A506" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91830.fa</t>
+          <t>even_MAG-GUT91967.fa</t>
         </is>
       </c>
       <c r="B506" t="n">
-        <v>226642.0978524758</v>
+        <v>176479.3602212387</v>
       </c>
       <c r="C506" t="inlineStr">
         <is>
@@ -10559,11 +10559,11 @@
     <row r="507">
       <c r="A507" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91833.fa</t>
+          <t>even_MAG-GUT92006.fa</t>
         </is>
       </c>
       <c r="B507" t="n">
-        <v>148261.9534877843</v>
+        <v>129423.0374781786</v>
       </c>
       <c r="C507" t="inlineStr">
         <is>
@@ -10579,11 +10579,11 @@
     <row r="508">
       <c r="A508" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91860.fa</t>
+          <t>even_MAG-GUT92066.fa</t>
         </is>
       </c>
       <c r="B508" t="n">
-        <v>109537.4986338088</v>
+        <v>147315.1538045972</v>
       </c>
       <c r="C508" t="inlineStr">
         <is>
@@ -10599,11 +10599,11 @@
     <row r="509">
       <c r="A509" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91882.fa</t>
+          <t>even_MAG-GUT92111.fa</t>
         </is>
       </c>
       <c r="B509" t="n">
-        <v>149454.6550761132</v>
+        <v>156286.2473275381</v>
       </c>
       <c r="C509" t="inlineStr">
         <is>
@@ -10619,11 +10619,11 @@
     <row r="510">
       <c r="A510" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91886.fa</t>
+          <t>even_MAG-GUT940.fa</t>
         </is>
       </c>
       <c r="B510" t="n">
-        <v>181893.7723791951</v>
+        <v>143219.1132353277</v>
       </c>
       <c r="C510" t="inlineStr">
         <is>
@@ -10639,11 +10639,11 @@
     <row r="511">
       <c r="A511" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91887.fa</t>
+          <t>even_MAG-GUT945.fa</t>
         </is>
       </c>
       <c r="B511" t="n">
-        <v>220524.5950769555</v>
+        <v>201522.9050242291</v>
       </c>
       <c r="C511" t="inlineStr">
         <is>
@@ -10659,11 +10659,11 @@
     <row r="512">
       <c r="A512" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91911.fa</t>
+          <t>even_MAG-GUT9766.fa</t>
         </is>
       </c>
       <c r="B512" t="n">
-        <v>139591.1556526294</v>
+        <v>202810.3311382733</v>
       </c>
       <c r="C512" t="inlineStr">
         <is>
@@ -10679,11 +10679,11 @@
     <row r="513">
       <c r="A513" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT91912.fa</t>
+          <t>even_MAG-GUT984.fa</t>
         </is>
       </c>
       <c r="B513" t="n">
-        <v>158165.7871752279</v>
+        <v>92945.6873627859</v>
       </c>
       <c r="C513" t="inlineStr">
         <is>
@@ -10691,346 +10691,6 @@
         </is>
       </c>
       <c r="D513" t="inlineStr">
-        <is>
-          <t>c__Bacilli</t>
-        </is>
-      </c>
-    </row>
-    <row r="514">
-      <c r="A514" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT91923.fa</t>
-        </is>
-      </c>
-      <c r="B514" t="n">
-        <v>146500.4099660765</v>
-      </c>
-      <c r="C514" t="inlineStr">
-        <is>
-          <t>c__Bacilli</t>
-        </is>
-      </c>
-      <c r="D514" t="inlineStr">
-        <is>
-          <t>c__Bacilli</t>
-        </is>
-      </c>
-    </row>
-    <row r="515">
-      <c r="A515" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT91926.fa</t>
-        </is>
-      </c>
-      <c r="B515" t="n">
-        <v>161471.2307962728</v>
-      </c>
-      <c r="C515" t="inlineStr">
-        <is>
-          <t>c__Bacilli</t>
-        </is>
-      </c>
-      <c r="D515" t="inlineStr">
-        <is>
-          <t>c__Bacilli</t>
-        </is>
-      </c>
-    </row>
-    <row r="516">
-      <c r="A516" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT91932.fa</t>
-        </is>
-      </c>
-      <c r="B516" t="n">
-        <v>157000.1685425168</v>
-      </c>
-      <c r="C516" t="inlineStr">
-        <is>
-          <t>c__Bacilli</t>
-        </is>
-      </c>
-      <c r="D516" t="inlineStr">
-        <is>
-          <t>c__Bacilli</t>
-        </is>
-      </c>
-    </row>
-    <row r="517">
-      <c r="A517" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT91939.fa</t>
-        </is>
-      </c>
-      <c r="B517" t="n">
-        <v>206371.7875659065</v>
-      </c>
-      <c r="C517" t="inlineStr">
-        <is>
-          <t>c__Bacilli</t>
-        </is>
-      </c>
-      <c r="D517" t="inlineStr">
-        <is>
-          <t>c__Bacilli</t>
-        </is>
-      </c>
-    </row>
-    <row r="518">
-      <c r="A518" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT91941.fa</t>
-        </is>
-      </c>
-      <c r="B518" t="n">
-        <v>163981.5290378628</v>
-      </c>
-      <c r="C518" t="inlineStr">
-        <is>
-          <t>c__Bacilli</t>
-        </is>
-      </c>
-      <c r="D518" t="inlineStr">
-        <is>
-          <t>c__Bacilli</t>
-        </is>
-      </c>
-    </row>
-    <row r="519">
-      <c r="A519" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT91943.fa</t>
-        </is>
-      </c>
-      <c r="B519" t="n">
-        <v>166095.4865920786</v>
-      </c>
-      <c r="C519" t="inlineStr">
-        <is>
-          <t>c__Bacilli</t>
-        </is>
-      </c>
-      <c r="D519" t="inlineStr">
-        <is>
-          <t>c__Bacilli</t>
-        </is>
-      </c>
-    </row>
-    <row r="520">
-      <c r="A520" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT91954.fa</t>
-        </is>
-      </c>
-      <c r="B520" t="n">
-        <v>163708.1898953384</v>
-      </c>
-      <c r="C520" t="inlineStr">
-        <is>
-          <t>c__Bacilli</t>
-        </is>
-      </c>
-      <c r="D520" t="inlineStr">
-        <is>
-          <t>c__Bacilli</t>
-        </is>
-      </c>
-    </row>
-    <row r="521">
-      <c r="A521" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT91958.fa</t>
-        </is>
-      </c>
-      <c r="B521" t="n">
-        <v>183634.8758060238</v>
-      </c>
-      <c r="C521" t="inlineStr">
-        <is>
-          <t>c__Bacilli</t>
-        </is>
-      </c>
-      <c r="D521" t="inlineStr">
-        <is>
-          <t>c__Bacilli</t>
-        </is>
-      </c>
-    </row>
-    <row r="522">
-      <c r="A522" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT91960.fa</t>
-        </is>
-      </c>
-      <c r="B522" t="n">
-        <v>175427.2390966073</v>
-      </c>
-      <c r="C522" t="inlineStr">
-        <is>
-          <t>c__Bacilli</t>
-        </is>
-      </c>
-      <c r="D522" t="inlineStr">
-        <is>
-          <t>c__Bacilli</t>
-        </is>
-      </c>
-    </row>
-    <row r="523">
-      <c r="A523" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT91967.fa</t>
-        </is>
-      </c>
-      <c r="B523" t="n">
-        <v>176479.3602212387</v>
-      </c>
-      <c r="C523" t="inlineStr">
-        <is>
-          <t>c__Bacilli</t>
-        </is>
-      </c>
-      <c r="D523" t="inlineStr">
-        <is>
-          <t>c__Bacilli</t>
-        </is>
-      </c>
-    </row>
-    <row r="524">
-      <c r="A524" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT92006.fa</t>
-        </is>
-      </c>
-      <c r="B524" t="n">
-        <v>129423.0374781786</v>
-      </c>
-      <c r="C524" t="inlineStr">
-        <is>
-          <t>c__Bacilli</t>
-        </is>
-      </c>
-      <c r="D524" t="inlineStr">
-        <is>
-          <t>c__Bacilli</t>
-        </is>
-      </c>
-    </row>
-    <row r="525">
-      <c r="A525" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT92066.fa</t>
-        </is>
-      </c>
-      <c r="B525" t="n">
-        <v>147315.1538045972</v>
-      </c>
-      <c r="C525" t="inlineStr">
-        <is>
-          <t>c__Bacilli</t>
-        </is>
-      </c>
-      <c r="D525" t="inlineStr">
-        <is>
-          <t>c__Bacilli</t>
-        </is>
-      </c>
-    </row>
-    <row r="526">
-      <c r="A526" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT92111.fa</t>
-        </is>
-      </c>
-      <c r="B526" t="n">
-        <v>156286.2473275381</v>
-      </c>
-      <c r="C526" t="inlineStr">
-        <is>
-          <t>c__Bacilli</t>
-        </is>
-      </c>
-      <c r="D526" t="inlineStr">
-        <is>
-          <t>c__Bacilli</t>
-        </is>
-      </c>
-    </row>
-    <row r="527">
-      <c r="A527" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT940.fa</t>
-        </is>
-      </c>
-      <c r="B527" t="n">
-        <v>143219.1132353277</v>
-      </c>
-      <c r="C527" t="inlineStr">
-        <is>
-          <t>c__Bacilli</t>
-        </is>
-      </c>
-      <c r="D527" t="inlineStr">
-        <is>
-          <t>c__Bacilli</t>
-        </is>
-      </c>
-    </row>
-    <row r="528">
-      <c r="A528" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT945.fa</t>
-        </is>
-      </c>
-      <c r="B528" t="n">
-        <v>201522.9050242291</v>
-      </c>
-      <c r="C528" t="inlineStr">
-        <is>
-          <t>c__Bacilli</t>
-        </is>
-      </c>
-      <c r="D528" t="inlineStr">
-        <is>
-          <t>c__Bacilli</t>
-        </is>
-      </c>
-    </row>
-    <row r="529">
-      <c r="A529" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT9766.fa</t>
-        </is>
-      </c>
-      <c r="B529" t="n">
-        <v>202810.3311382733</v>
-      </c>
-      <c r="C529" t="inlineStr">
-        <is>
-          <t>c__Bacilli</t>
-        </is>
-      </c>
-      <c r="D529" t="inlineStr">
-        <is>
-          <t>c__Bacilli</t>
-        </is>
-      </c>
-    </row>
-    <row r="530">
-      <c r="A530" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT984.fa</t>
-        </is>
-      </c>
-      <c r="B530" t="n">
-        <v>92945.6873627859</v>
-      </c>
-      <c r="C530" t="inlineStr">
-        <is>
-          <t>c__Bacilli</t>
-        </is>
-      </c>
-      <c r="D530" t="inlineStr">
         <is>
           <t>c__Bacilli</t>
         </is>
